--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_8_12.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_8_12.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-914404.5061164398</v>
+        <v>-916108.8582531516</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>200.3360962888297</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,10 +668,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>241.0142888776591</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -701,28 +701,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>218.0792724223796</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,22 +738,22 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>36.8457487857198</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
@@ -783,16 +783,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>175.9693094984402</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -862,19 +862,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0</v>
+      </c>
+      <c r="U4" t="n">
+        <v>0</v>
+      </c>
+      <c r="V4" t="n">
         <v>133.186967585368</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0</v>
-      </c>
-      <c r="U4" t="n">
-        <v>0</v>
-      </c>
-      <c r="V4" t="n">
-        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -896,7 +896,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>241.0142888776591</v>
@@ -905,7 +905,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>175.0426595591497</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>15.30273751513505</v>
@@ -914,7 +914,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
         <v>11.94928935461252</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>216.6234524382191</v>
       </c>
     </row>
     <row r="6">
@@ -981,19 +981,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
         <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>0.385565270940821</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.9413820809748</v>
+        <v>42.98938177812897</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -1102,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>110.9174757594852</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1145,13 +1145,13 @@
         <v>241.0142888776591</v>
       </c>
       <c r="G8" t="n">
-        <v>71.01467844038824</v>
+        <v>15.30273751513505</v>
       </c>
       <c r="H8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>11.94928935461252</v>
@@ -1178,10 +1178,10 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1196,10 +1196,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>207.0368788505634</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
     </row>
     <row r="9">
@@ -1212,7 +1212,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
         <v>147.4450655646388</v>
@@ -1221,7 +1221,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>95.54537783390992</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>72.966621555956</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
         <v>0.7465913262578567</v>
@@ -1257,10 +1257,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>14.83685490770591</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.83685490770591</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1367,13 +1367,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>362.3140662372057</v>
       </c>
       <c r="C11" t="n">
         <v>344.8531163447327</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>334.2632661944081</v>
       </c>
       <c r="E11" t="n">
         <v>361.5105946459869</v>
@@ -1388,7 +1388,7 @@
         <v>294.8530230257433</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>98.94929161302584</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>9.403346117528145</v>
+        <v>134.7491374664341</v>
       </c>
       <c r="T11" t="n">
-        <v>192.3312167192737</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>230.7368224059507</v>
+        <v>180.3281422750114</v>
       </c>
       <c r="V11" t="n">
         <v>307.33248304386</v>
       </c>
       <c r="W11" t="n">
-        <v>328.8211932911381</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>349.3113252521941</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>365.8181632297787</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.6530484186848</v>
+        <v>21.65304841868482</v>
       </c>
       <c r="S12" t="n">
         <v>148.1971745240615</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>124.9553780794669</v>
+        <v>159.4122047556624</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>125.0012725966564</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>146.5111589513637</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>103.1522558959535</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.2101389041963</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>202.9965309021384</v>
       </c>
       <c r="U13" t="n">
         <v>265.8414332948985</v>
       </c>
       <c r="V13" t="n">
-        <v>231.7178678975531</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>266.1032229103161</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>46.75085195725072</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>198.1648779258199</v>
       </c>
     </row>
     <row r="14">
@@ -1625,7 +1625,7 @@
         <v>294.8530230257433</v>
       </c>
       <c r="I14" t="n">
-        <v>44.96737496042944</v>
+        <v>64.71524610227775</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,16 +1655,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>134.7491374664341</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>192.3312167192737</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>307.33248304386</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1762,19 +1762,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>159.4122047556624</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>128.1956975919375</v>
       </c>
       <c r="E16" t="n">
-        <v>109.5939406890325</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>125.0012725966564</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -1816,22 +1816,22 @@
         <v>185.1231296267668</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>185.8301808725848</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>231.7178678975531</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>266.1032229103161</v>
       </c>
       <c r="X16" t="n">
-        <v>205.2898799627623</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>198.1648779258199</v>
       </c>
     </row>
     <row r="17">
@@ -1859,7 +1859,7 @@
         <v>331.1282792841545</v>
       </c>
       <c r="H17" t="n">
-        <v>233.4615286661737</v>
+        <v>233.4615286661736</v>
       </c>
       <c r="I17" t="n">
         <v>37.55779725345616</v>
@@ -2014,13 +2014,13 @@
         <v>63.60977823708667</v>
       </c>
       <c r="G19" t="n">
-        <v>85.11966459179396</v>
+        <v>85.11966459179398</v>
       </c>
       <c r="H19" t="n">
         <v>70.99113916484795</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>41.7607615363838</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,16 +2047,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>47.81864454462665</v>
       </c>
       <c r="S19" t="n">
         <v>123.7316352671971</v>
       </c>
       <c r="T19" t="n">
-        <v>85.69255740120538</v>
+        <v>141.6050365425687</v>
       </c>
       <c r="U19" t="n">
-        <v>204.4499389353289</v>
+        <v>58.9580537129555</v>
       </c>
       <c r="V19" t="n">
         <v>170.3263735379834</v>
@@ -2099,7 +2099,7 @@
         <v>233.4615286661737</v>
       </c>
       <c r="I20" t="n">
-        <v>37.55779725345616</v>
+        <v>37.55779725345617</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2135,7 +2135,7 @@
         <v>130.939722359704</v>
       </c>
       <c r="U20" t="n">
-        <v>169.345328046381</v>
+        <v>169.3453280463811</v>
       </c>
       <c r="V20" t="n">
         <v>245.9409886842903</v>
@@ -2236,7 +2236,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.02071039609272</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>85.43555131278326</v>
@@ -2248,16 +2248,16 @@
         <v>64.6226928607246</v>
       </c>
       <c r="F22" t="n">
-        <v>63.60977823708667</v>
+        <v>16.13860341080596</v>
       </c>
       <c r="G22" t="n">
-        <v>85.11966459179396</v>
+        <v>85.11966459179398</v>
       </c>
       <c r="H22" t="n">
         <v>70.99113916484795</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>41.7607615363838</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>204.7117285507464</v>
       </c>
       <c r="X22" t="n">
-        <v>40.16726191720288</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y22" t="n">
         <v>136.7733835662502</v>
@@ -2333,10 +2333,10 @@
         <v>331.1282792841545</v>
       </c>
       <c r="H23" t="n">
-        <v>233.4615286661737</v>
+        <v>233.4615286661736</v>
       </c>
       <c r="I23" t="n">
-        <v>37.55779725345617</v>
+        <v>37.55779725345619</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.35764310686444</v>
+        <v>73.35764310686447</v>
       </c>
       <c r="T23" t="n">
         <v>130.939722359704</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>98.02071039609275</v>
       </c>
       <c r="C25" t="n">
-        <v>85.43555131278326</v>
+        <v>85.43555131278329</v>
       </c>
       <c r="D25" t="n">
-        <v>66.80420323236778</v>
+        <v>66.80420323236781</v>
       </c>
       <c r="E25" t="n">
-        <v>64.6226928607246</v>
+        <v>64.62269286072463</v>
       </c>
       <c r="F25" t="n">
-        <v>63.60977823708667</v>
+        <v>63.6097782370867</v>
       </c>
       <c r="G25" t="n">
-        <v>85.11966459179396</v>
+        <v>85.11966459179401</v>
       </c>
       <c r="H25" t="n">
-        <v>70.99113916484795</v>
+        <v>70.99113916484798</v>
       </c>
       <c r="I25" t="n">
-        <v>41.7607615363838</v>
+        <v>41.76076153638382</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.3474697183465238</v>
+        <v>47.81864454462668</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7316352671971</v>
+        <v>115.0131336110725</v>
       </c>
       <c r="T25" t="n">
         <v>141.6050365425687</v>
@@ -2542,7 +2542,7 @@
         <v>143.8983856031926</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.7733835662502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2558,13 +2558,13 @@
         <v>283.461621985163</v>
       </c>
       <c r="D26" t="n">
-        <v>272.8717718348384</v>
+        <v>272.8717718348383</v>
       </c>
       <c r="E26" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F26" t="n">
-        <v>325.0647759558669</v>
+        <v>325.0647759558668</v>
       </c>
       <c r="G26" t="n">
         <v>331.1282792841545</v>
@@ -2573,7 +2573,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I26" t="n">
-        <v>37.55779725345616</v>
+        <v>37.55779725345614</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.35764310686444</v>
+        <v>73.35764310686443</v>
       </c>
       <c r="T26" t="n">
         <v>130.939722359704</v>
@@ -2615,10 +2615,10 @@
         <v>245.9409886842903</v>
       </c>
       <c r="W26" t="n">
-        <v>267.4296989315685</v>
+        <v>267.4296989315684</v>
       </c>
       <c r="X26" t="n">
-        <v>287.9198308926245</v>
+        <v>287.9198308926244</v>
       </c>
       <c r="Y26" t="n">
         <v>304.426668870209</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.02071039609272</v>
+        <v>98.02071039609271</v>
       </c>
       <c r="C28" t="n">
-        <v>85.43555131278326</v>
+        <v>85.43555131278325</v>
       </c>
       <c r="D28" t="n">
-        <v>66.80420323236778</v>
+        <v>66.80420323236777</v>
       </c>
       <c r="E28" t="n">
-        <v>64.6226928607246</v>
+        <v>64.62269286072458</v>
       </c>
       <c r="F28" t="n">
-        <v>63.60977823708667</v>
+        <v>63.60977823708666</v>
       </c>
       <c r="G28" t="n">
-        <v>85.11966459179398</v>
+        <v>85.11966459179396</v>
       </c>
       <c r="H28" t="n">
-        <v>70.99113916484795</v>
+        <v>70.99113916484794</v>
       </c>
       <c r="I28" t="n">
-        <v>41.7607615363838</v>
+        <v>41.76076153638378</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.81864454462665</v>
+        <v>47.81864454462664</v>
       </c>
       <c r="S28" t="n">
         <v>123.7316352671971</v>
@@ -2767,19 +2767,19 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U28" t="n">
-        <v>204.4499389353289</v>
+        <v>204.4499389353288</v>
       </c>
       <c r="V28" t="n">
         <v>170.3263735379834</v>
       </c>
       <c r="W28" t="n">
-        <v>204.7117285507464</v>
+        <v>59.21984332837304</v>
       </c>
       <c r="X28" t="n">
-        <v>135.1798839470698</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="29">
@@ -2795,13 +2795,13 @@
         <v>283.461621985163</v>
       </c>
       <c r="D29" t="n">
-        <v>272.8717718348384</v>
+        <v>272.8717718348383</v>
       </c>
       <c r="E29" t="n">
         <v>300.1191002864172</v>
       </c>
       <c r="F29" t="n">
-        <v>325.0647759558669</v>
+        <v>325.0647759558668</v>
       </c>
       <c r="G29" t="n">
         <v>331.1282792841545</v>
@@ -2810,7 +2810,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I29" t="n">
-        <v>37.55779725345616</v>
+        <v>37.55779725345614</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.35764310686444</v>
+        <v>73.35764310686443</v>
       </c>
       <c r="T29" t="n">
         <v>130.939722359704</v>
@@ -2852,10 +2852,10 @@
         <v>245.9409886842903</v>
       </c>
       <c r="W29" t="n">
-        <v>267.4296989315685</v>
+        <v>267.4296989315684</v>
       </c>
       <c r="X29" t="n">
-        <v>287.9198308926245</v>
+        <v>287.9198308926244</v>
       </c>
       <c r="Y29" t="n">
         <v>304.426668870209</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>98.02071039609272</v>
+        <v>98.02071039609271</v>
       </c>
       <c r="C31" t="n">
-        <v>85.43555131278326</v>
+        <v>10.93480525525715</v>
       </c>
       <c r="D31" t="n">
-        <v>66.80420323236778</v>
+        <v>66.80420323236777</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>64.62269286072458</v>
       </c>
       <c r="F31" t="n">
-        <v>63.60977823708667</v>
+        <v>63.60977823708666</v>
       </c>
       <c r="G31" t="n">
-        <v>85.11966459179398</v>
+        <v>85.11966459179396</v>
       </c>
       <c r="H31" t="n">
-        <v>31.8827083395821</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>41.76076153638378</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>47.81864454462665</v>
+        <v>47.81864454462664</v>
       </c>
       <c r="S31" t="n">
         <v>123.7316352671971</v>
@@ -3004,7 +3004,7 @@
         <v>141.6050365425687</v>
       </c>
       <c r="U31" t="n">
-        <v>204.4499389353289</v>
+        <v>204.4499389353288</v>
       </c>
       <c r="V31" t="n">
         <v>170.3263735379834</v>
@@ -3032,22 +3032,22 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D32" t="n">
-        <v>266.7691290870122</v>
+        <v>266.7691290870123</v>
       </c>
       <c r="E32" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F32" t="n">
-        <v>318.9621332080407</v>
+        <v>321.1653801173859</v>
       </c>
       <c r="G32" t="n">
-        <v>325.0256365363284</v>
+        <v>412.9395490699991</v>
       </c>
       <c r="H32" t="n">
         <v>227.3588859183475</v>
       </c>
       <c r="I32" t="n">
-        <v>119.3690670393007</v>
+        <v>31.45515450563003</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>1.422481774376195</v>
       </c>
       <c r="S32" t="n">
-        <v>67.25500035903828</v>
+        <v>67.25500035903832</v>
       </c>
       <c r="T32" t="n">
         <v>124.8370796118779</v>
@@ -3092,10 +3092,10 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X32" t="n">
-        <v>281.8171881447983</v>
+        <v>281.8171881447984</v>
       </c>
       <c r="Y32" t="n">
-        <v>300.527273031728</v>
+        <v>298.3240261223829</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.91806764826656</v>
+        <v>91.9180676482666</v>
       </c>
       <c r="C34" t="n">
-        <v>79.33290856495709</v>
+        <v>79.33290856495714</v>
       </c>
       <c r="D34" t="n">
-        <v>60.70156048454162</v>
+        <v>60.70156048454166</v>
       </c>
       <c r="E34" t="n">
-        <v>58.52005011289843</v>
+        <v>58.52005011289847</v>
       </c>
       <c r="F34" t="n">
-        <v>57.50713548926051</v>
+        <v>57.50713548926055</v>
       </c>
       <c r="G34" t="n">
-        <v>79.0170218439678</v>
+        <v>79.01702184396785</v>
       </c>
       <c r="H34" t="n">
-        <v>64.88849641702178</v>
+        <v>64.88849641702183</v>
       </c>
       <c r="I34" t="n">
-        <v>35.65811878855763</v>
+        <v>35.65811878855767</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71600179680048</v>
+        <v>41.71600179680053</v>
       </c>
       <c r="S34" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T34" t="n">
-        <v>135.5023937947425</v>
+        <v>135.5023937947426</v>
       </c>
       <c r="U34" t="n">
         <v>198.3472961875027</v>
@@ -3250,10 +3250,10 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X34" t="n">
-        <v>137.7957428553664</v>
+        <v>137.7957428553665</v>
       </c>
       <c r="Y34" t="n">
-        <v>130.6707408184249</v>
+        <v>130.6707408184241</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>294.8199291298099</v>
+        <v>294.8199291298098</v>
       </c>
       <c r="C35" t="n">
         <v>277.3589792373368</v>
@@ -3272,19 +3272,19 @@
         <v>266.7691290870122</v>
       </c>
       <c r="E35" t="n">
-        <v>294.0164575385911</v>
+        <v>294.016457538591</v>
       </c>
       <c r="F35" t="n">
         <v>318.9621332080407</v>
       </c>
       <c r="G35" t="n">
-        <v>325.0256365363284</v>
+        <v>325.0256365363283</v>
       </c>
       <c r="H35" t="n">
         <v>227.3588859183475</v>
       </c>
       <c r="I35" t="n">
-        <v>31.45515450563002</v>
+        <v>31.45515450562998</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.25500035903831</v>
+        <v>67.25500035903826</v>
       </c>
       <c r="T35" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U35" t="n">
         <v>163.2426852985549</v>
@@ -3326,7 +3326,7 @@
         <v>239.8383459364642</v>
       </c>
       <c r="W35" t="n">
-        <v>261.3270561837423</v>
+        <v>261.3270561837422</v>
       </c>
       <c r="X35" t="n">
         <v>281.8171881447983</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.91806764826659</v>
+        <v>91.91806764826654</v>
       </c>
       <c r="C37" t="n">
-        <v>79.33290856495712</v>
+        <v>79.33290856495708</v>
       </c>
       <c r="D37" t="n">
-        <v>60.70156048454164</v>
+        <v>60.7015604845416</v>
       </c>
       <c r="E37" t="n">
-        <v>58.52005011289846</v>
+        <v>58.52005011289842</v>
       </c>
       <c r="F37" t="n">
-        <v>57.50713548926053</v>
+        <v>57.50713548926049</v>
       </c>
       <c r="G37" t="n">
-        <v>79.01702184396784</v>
+        <v>79.0170218439678</v>
       </c>
       <c r="H37" t="n">
-        <v>64.88849641702181</v>
+        <v>64.88849641702177</v>
       </c>
       <c r="I37" t="n">
-        <v>35.65811878855766</v>
+        <v>35.65811878855762</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680047</v>
       </c>
       <c r="S37" t="n">
-        <v>117.628992519371</v>
+        <v>117.6289925193709</v>
       </c>
       <c r="T37" t="n">
         <v>135.5023937947425</v>
@@ -3481,16 +3481,16 @@
         <v>198.3472961875027</v>
       </c>
       <c r="V37" t="n">
-        <v>164.2237307901573</v>
+        <v>164.2237307901572</v>
       </c>
       <c r="W37" t="n">
-        <v>198.6090858029203</v>
+        <v>198.6090858029202</v>
       </c>
       <c r="X37" t="n">
         <v>137.7957428553664</v>
       </c>
       <c r="Y37" t="n">
-        <v>130.6707408184241</v>
+        <v>130.670740818424</v>
       </c>
     </row>
     <row r="38">
@@ -3521,7 +3521,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I38" t="n">
-        <v>31.45515450563003</v>
+        <v>31.45515450562999</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -3554,7 +3554,7 @@
         <v>67.25500035903829</v>
       </c>
       <c r="T38" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U38" t="n">
         <v>163.2426852985549</v>
@@ -3600,7 +3600,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I39" t="n">
-        <v>45.86296740838226</v>
+        <v>45.86296740838224</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,10 +3627,10 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>21.65304841868483</v>
+        <v>21.65304841868479</v>
       </c>
       <c r="S39" t="n">
-        <v>148.1971745240616</v>
+        <v>148.1971745240615</v>
       </c>
       <c r="T39" t="n">
         <v>195.0682397085608</v>
@@ -3658,19 +3658,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>91.91806764826657</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C40" t="n">
-        <v>79.33290856495711</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D40" t="n">
-        <v>60.70156048454163</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E40" t="n">
-        <v>58.52005011289845</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F40" t="n">
-        <v>57.50713548926052</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G40" t="n">
         <v>79.01702184396783</v>
@@ -3679,7 +3679,7 @@
         <v>64.8884964170218</v>
       </c>
       <c r="I40" t="n">
-        <v>35.65811878855765</v>
+        <v>35.65811878855764</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680049</v>
       </c>
       <c r="S40" t="n">
         <v>117.628992519371</v>
@@ -3752,13 +3752,13 @@
         <v>318.9621332080407</v>
       </c>
       <c r="G41" t="n">
-        <v>325.0256365363284</v>
+        <v>325.0256365363299</v>
       </c>
       <c r="H41" t="n">
         <v>227.3588859183475</v>
       </c>
       <c r="I41" t="n">
-        <v>31.45515450563002</v>
+        <v>31.45515450562999</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.25500035903828</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T41" t="n">
         <v>124.8370796118778</v>
@@ -3837,7 +3837,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I42" t="n">
-        <v>45.86296740838226</v>
+        <v>45.86296740838224</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -3864,10 +3864,10 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>21.65304841868483</v>
+        <v>21.65304841868479</v>
       </c>
       <c r="S42" t="n">
-        <v>148.1971745240616</v>
+        <v>148.1971745240615</v>
       </c>
       <c r="T42" t="n">
         <v>195.0682397085608</v>
@@ -3895,25 +3895,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.91806764826656</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C43" t="n">
-        <v>79.33290856495709</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D43" t="n">
-        <v>60.70156048454162</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E43" t="n">
-        <v>58.52005011289843</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F43" t="n">
-        <v>57.50713548926051</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G43" t="n">
-        <v>79.01702184396781</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H43" t="n">
-        <v>64.88849641702178</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I43" t="n">
         <v>35.65811878855764</v>
@@ -3974,7 +3974,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>294.8199291298099</v>
+        <v>294.8199291298098</v>
       </c>
       <c r="C44" t="n">
         <v>277.3589792373368</v>
@@ -3983,19 +3983,19 @@
         <v>266.7691290870122</v>
       </c>
       <c r="E44" t="n">
-        <v>294.0164575385911</v>
+        <v>294.016457538591</v>
       </c>
       <c r="F44" t="n">
         <v>318.9621332080407</v>
       </c>
       <c r="G44" t="n">
-        <v>325.0256365363284</v>
+        <v>325.0256365363283</v>
       </c>
       <c r="H44" t="n">
         <v>227.3588859183475</v>
       </c>
       <c r="I44" t="n">
-        <v>31.45515450563005</v>
+        <v>31.45515450562995</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,10 +4025,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.25500035903831</v>
+        <v>67.25500035903823</v>
       </c>
       <c r="T44" t="n">
-        <v>124.8370796118779</v>
+        <v>124.8370796118778</v>
       </c>
       <c r="U44" t="n">
         <v>163.2426852985549</v>
@@ -4037,7 +4037,7 @@
         <v>239.8383459364642</v>
       </c>
       <c r="W44" t="n">
-        <v>261.3270561837423</v>
+        <v>261.3270561837422</v>
       </c>
       <c r="X44" t="n">
         <v>281.8171881447983</v>
@@ -4074,7 +4074,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I45" t="n">
-        <v>45.86296740838226</v>
+        <v>45.86296740838224</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>21.65304841868483</v>
+        <v>21.65304841868479</v>
       </c>
       <c r="S45" t="n">
-        <v>148.1971745240616</v>
+        <v>148.1971745240615</v>
       </c>
       <c r="T45" t="n">
         <v>195.0682397085608</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.91806764826659</v>
+        <v>91.91806764826654</v>
       </c>
       <c r="C46" t="n">
-        <v>79.33290856495712</v>
+        <v>79.33290856495708</v>
       </c>
       <c r="D46" t="n">
-        <v>60.70156048454164</v>
+        <v>60.7015604845416</v>
       </c>
       <c r="E46" t="n">
-        <v>58.52005011289846</v>
+        <v>58.52005011289842</v>
       </c>
       <c r="F46" t="n">
-        <v>57.50713548926053</v>
+        <v>57.50713548926049</v>
       </c>
       <c r="G46" t="n">
-        <v>79.01702184396784</v>
+        <v>79.0170218439678</v>
       </c>
       <c r="H46" t="n">
-        <v>64.88849641702181</v>
+        <v>64.88849641702177</v>
       </c>
       <c r="I46" t="n">
-        <v>35.65811878855767</v>
+        <v>35.6581187885576</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680044</v>
       </c>
       <c r="S46" t="n">
-        <v>117.628992519371</v>
+        <v>117.6289925193709</v>
       </c>
       <c r="T46" t="n">
         <v>135.5023937947425</v>
@@ -4192,16 +4192,16 @@
         <v>198.3472961875027</v>
       </c>
       <c r="V46" t="n">
-        <v>164.2237307901573</v>
+        <v>164.2237307901572</v>
       </c>
       <c r="W46" t="n">
-        <v>198.6090858029203</v>
+        <v>198.6090858029202</v>
       </c>
       <c r="X46" t="n">
         <v>137.7957428553664</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.6707408184241</v>
+        <v>130.670740818424</v>
       </c>
     </row>
   </sheetData>
@@ -4304,19 +4304,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="C2" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="D2" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="E2" t="n">
-        <v>518.2486856454962</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="F2" t="n">
-        <v>274.7999090013961</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G2" t="n">
         <v>31.35113235729608</v>
@@ -4349,31 +4349,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>964.0571555106362</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S2" t="n">
-        <v>964.0571555106362</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T2" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="U2" t="n">
-        <v>964.0571555106362</v>
+        <v>517.4848137278872</v>
       </c>
       <c r="V2" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="W2" t="n">
-        <v>964.0571555106362</v>
+        <v>274.0360370837871</v>
       </c>
       <c r="X2" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
       <c r="Y2" t="n">
-        <v>720.6083788665362</v>
+        <v>53.75394372784808</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>756.2056553051034</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="C3" t="n">
-        <v>581.7526260239764</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="D3" t="n">
-        <v>432.8182163627251</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="E3" t="n">
-        <v>432.8182163627251</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="F3" t="n">
-        <v>286.2836583896101</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="G3" t="n">
-        <v>147.5528329722256</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H3" t="n">
         <v>110.334904905842</v>
@@ -4410,13 +4410,13 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K3" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>304.2053859195205</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="N3" t="n">
         <v>542.809531908403</v>
@@ -4431,28 +4431,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S3" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>685.1408487923702</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>456.9172305287593</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>456.9172305287593</v>
       </c>
       <c r="W3" t="n">
-        <v>964.0571555106362</v>
+        <v>456.9172305287593</v>
       </c>
       <c r="X3" t="n">
-        <v>756.2056553051034</v>
+        <v>249.0657303232264</v>
       </c>
       <c r="Y3" t="n">
-        <v>756.2056553051034</v>
+        <v>249.0657303232264</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="C4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="D4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="E4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="F4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="G4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="H4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="I4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="J4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="K4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="L4" t="n">
-        <v>46.5952681179257</v>
+        <v>856.8389900280785</v>
       </c>
       <c r="M4" t="n">
-        <v>85.78330631014788</v>
+        <v>896.0270282203006</v>
       </c>
       <c r="N4" t="n">
-        <v>129.4741569655842</v>
+        <v>939.7178788757369</v>
       </c>
       <c r="O4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="P4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="Q4" t="n">
-        <v>153.8134336004835</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R4" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S4" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T4" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U4" t="n">
-        <v>19.28114311021272</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="V4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="W4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="X4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
       <c r="Y4" t="n">
-        <v>19.28114311021272</v>
+        <v>829.5248650203655</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="C5" t="n">
-        <v>467.067986854209</v>
+        <v>509.8046290289238</v>
       </c>
       <c r="D5" t="n">
-        <v>223.6192102101089</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E5" t="n">
-        <v>223.6192102101089</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F5" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I5" t="n">
         <v>31.35113235729608</v>
@@ -4595,22 +4595,22 @@
         <v>953.9655401424092</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>728.6161971483371</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>509.8046290289238</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>293.0313262305118</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="C6" t="n">
-        <v>293.0313262305118</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="D6" t="n">
-        <v>293.0313262305118</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="E6" t="n">
-        <v>133.7938712250563</v>
+        <v>508.9694238887622</v>
       </c>
       <c r="F6" t="n">
-        <v>133.7938712250563</v>
+        <v>362.4348659156472</v>
       </c>
       <c r="G6" t="n">
-        <v>133.7938712250563</v>
+        <v>223.7040404982626</v>
       </c>
       <c r="H6" t="n">
-        <v>20.42473563263563</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4650,10 +4650,10 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>178.8501590306595</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>417.4543050195419</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N6" t="n">
         <v>656.0584510084244</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>862.8876260635219</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T6" t="n">
-        <v>689.4702815141908</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U6" t="n">
-        <v>461.2466632505798</v>
+        <v>920.6335375529302</v>
       </c>
       <c r="V6" t="n">
-        <v>461.2466632505798</v>
+        <v>920.6335375529302</v>
       </c>
       <c r="W6" t="n">
-        <v>461.2466632505798</v>
+        <v>677.1847609088302</v>
       </c>
       <c r="X6" t="n">
-        <v>461.2466632505798</v>
+        <v>677.1847609088302</v>
       </c>
       <c r="Y6" t="n">
-        <v>461.2466632505798</v>
+        <v>677.1847609088302</v>
       </c>
     </row>
     <row r="7">
@@ -4741,28 +4741,28 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R7" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="T7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="U7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="V7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="W7" t="n">
-        <v>151.0645035650224</v>
+        <v>41.77557929797318</v>
       </c>
       <c r="X7" t="n">
         <v>41.77557929797318</v>
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>802.5825927271064</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="C8" t="n">
-        <v>802.5825927271064</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="D8" t="n">
-        <v>802.5825927271064</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="E8" t="n">
-        <v>802.5825927271064</v>
+        <v>290.2572196227447</v>
       </c>
       <c r="F8" t="n">
-        <v>559.1338160830064</v>
+        <v>46.80844297864461</v>
       </c>
       <c r="G8" t="n">
-        <v>487.4018176583718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="H8" t="n">
-        <v>243.9530410142718</v>
+        <v>31.35113235729608</v>
       </c>
       <c r="I8" t="n">
         <v>31.35113235729608</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="T8" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="U8" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="V8" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="W8" t="n">
-        <v>802.5825927271064</v>
+        <v>742.8341567219593</v>
       </c>
       <c r="X8" t="n">
-        <v>802.5825927271064</v>
+        <v>533.7059962668447</v>
       </c>
       <c r="Y8" t="n">
-        <v>802.5825927271064</v>
+        <v>290.2572196227447</v>
       </c>
     </row>
     <row r="9">
@@ -4857,25 +4857,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>548.4453565401495</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="C9" t="n">
-        <v>548.4453565401495</v>
+        <v>515.0172522330638</v>
       </c>
       <c r="D9" t="n">
-        <v>399.5109468788983</v>
+        <v>366.0828425718125</v>
       </c>
       <c r="E9" t="n">
-        <v>240.2734918734428</v>
+        <v>206.845387566357</v>
       </c>
       <c r="F9" t="n">
-        <v>93.73893390032774</v>
+        <v>110.334904905842</v>
       </c>
       <c r="G9" t="n">
-        <v>93.73893390032774</v>
+        <v>110.334904905842</v>
       </c>
       <c r="H9" t="n">
-        <v>93.73893390032774</v>
+        <v>110.334904905842</v>
       </c>
       <c r="I9" t="n">
         <v>20.03527576299844</v>
@@ -4884,49 +4884,49 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>487.8483949674443</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N9" t="n">
-        <v>542.809531908403</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="O9" t="n">
-        <v>781.4136778972854</v>
+        <v>712.019119383956</v>
       </c>
       <c r="P9" t="n">
-        <v>964.0571555106362</v>
+        <v>894.6625969973069</v>
       </c>
       <c r="Q9" t="n">
         <v>964.0571555106362</v>
       </c>
       <c r="R9" t="n">
-        <v>964.0571555106362</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="U9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="V9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="W9" t="n">
-        <v>964.0571555106362</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="X9" t="n">
-        <v>756.2056553051034</v>
+        <v>689.4702815141908</v>
       </c>
       <c r="Y9" t="n">
-        <v>548.4453565401495</v>
+        <v>689.4702815141908</v>
       </c>
     </row>
     <row r="10">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="C10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="D10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="E10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="F10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="G10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="H10" t="n">
         <v>136.0777814360265</v>
@@ -4981,31 +4981,31 @@
         <v>151.0645035650224</v>
       </c>
       <c r="Q10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="R10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="S10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="T10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="U10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="V10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="W10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="X10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
       <c r="Y10" t="n">
-        <v>136.0777814360265</v>
+        <v>151.0645035650224</v>
       </c>
     </row>
     <row r="11">
@@ -5015,25 +5015,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1871.642825166789</v>
+        <v>2309.231267396519</v>
       </c>
       <c r="C11" t="n">
-        <v>1523.306344010493</v>
+        <v>1960.894786240224</v>
       </c>
       <c r="D11" t="n">
-        <v>1523.306344010493</v>
+        <v>1623.25512341759</v>
       </c>
       <c r="E11" t="n">
-        <v>1158.144127196365</v>
+        <v>1258.092906603461</v>
       </c>
       <c r="F11" t="n">
-        <v>767.7842581908736</v>
+        <v>867.73303759797</v>
       </c>
       <c r="G11" t="n">
-        <v>371.299638348728</v>
+        <v>471.2484177558243</v>
       </c>
       <c r="H11" t="n">
-        <v>73.46830195908777</v>
+        <v>173.4170813661846</v>
       </c>
       <c r="I11" t="n">
         <v>73.46830195908777</v>
@@ -5042,7 +5042,7 @@
         <v>260.2054441404284</v>
       </c>
       <c r="K11" t="n">
-        <v>660.820817907538</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L11" t="n">
         <v>1210.096241442436</v>
@@ -5066,25 +5066,25 @@
         <v>3673.415097954388</v>
       </c>
       <c r="S11" t="n">
-        <v>3663.916768542744</v>
+        <v>3537.304858089303</v>
       </c>
       <c r="T11" t="n">
-        <v>3469.642812260649</v>
+        <v>3537.304858089303</v>
       </c>
       <c r="U11" t="n">
-        <v>3236.575314880901</v>
+        <v>3355.155219427676</v>
       </c>
       <c r="V11" t="n">
-        <v>2926.138463321447</v>
+        <v>3044.718367868221</v>
       </c>
       <c r="W11" t="n">
-        <v>2593.995843835448</v>
+        <v>3044.718367868221</v>
       </c>
       <c r="X11" t="n">
-        <v>2241.156121358485</v>
+        <v>3044.718367868221</v>
       </c>
       <c r="Y11" t="n">
-        <v>1871.642825166789</v>
+        <v>2675.205071676525</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5118,22 @@
         <v>73.46830195908777</v>
       </c>
       <c r="J12" t="n">
-        <v>190.9942848817978</v>
+        <v>190.9942848817977</v>
       </c>
       <c r="K12" t="n">
-        <v>256.6651674322115</v>
+        <v>518.4857520746641</v>
       </c>
       <c r="L12" t="n">
-        <v>758.4222563170914</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M12" t="n">
-        <v>997.8514114887491</v>
+        <v>1657.74891897556</v>
       </c>
       <c r="N12" t="n">
-        <v>1667.937391818767</v>
+        <v>2327.834899305578</v>
       </c>
       <c r="O12" t="n">
-        <v>2214.519473647356</v>
+        <v>2529.797614600894</v>
       </c>
       <c r="P12" t="n">
         <v>2636.196714164933</v>
@@ -5173,31 +5173,31 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>199.7322136728821</v>
+        <v>325.6535694816304</v>
       </c>
       <c r="C13" t="n">
-        <v>199.7322136728821</v>
+        <v>325.6535694816304</v>
       </c>
       <c r="D13" t="n">
-        <v>199.7322136728821</v>
+        <v>325.6535694816304</v>
       </c>
       <c r="E13" t="n">
-        <v>199.7322136728821</v>
+        <v>325.6535694816304</v>
       </c>
       <c r="F13" t="n">
-        <v>73.46830195908777</v>
+        <v>325.6535694816304</v>
       </c>
       <c r="G13" t="n">
-        <v>73.46830195908777</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="H13" t="n">
-        <v>73.46830195908777</v>
+        <v>177.6624998337882</v>
       </c>
       <c r="I13" t="n">
         <v>73.46830195908777</v>
       </c>
       <c r="J13" t="n">
-        <v>75.45401965814355</v>
+        <v>75.45401965814354</v>
       </c>
       <c r="K13" t="n">
         <v>195.5491741164734</v>
@@ -5206,13 +5206,13 @@
         <v>399.1026573432035</v>
       </c>
       <c r="M13" t="n">
-        <v>623.0114736459855</v>
+        <v>623.0114736459853</v>
       </c>
       <c r="N13" t="n">
-        <v>847.511536432755</v>
+        <v>847.5115364327548</v>
       </c>
       <c r="O13" t="n">
-        <v>1040.400604995802</v>
+        <v>1040.400604995801</v>
       </c>
       <c r="P13" t="n">
         <v>1184.847502163548</v>
@@ -5221,28 +5221,28 @@
         <v>1207.639325881398</v>
       </c>
       <c r="R13" t="n">
-        <v>1097.326054260998</v>
+        <v>1207.639325881398</v>
       </c>
       <c r="S13" t="n">
-        <v>1097.326054260998</v>
+        <v>1207.639325881398</v>
       </c>
       <c r="T13" t="n">
-        <v>1097.326054260998</v>
+        <v>1002.592324970147</v>
       </c>
       <c r="U13" t="n">
-        <v>828.7993539631206</v>
+        <v>734.0656246722697</v>
       </c>
       <c r="V13" t="n">
-        <v>594.7409015413498</v>
+        <v>734.0656246722697</v>
       </c>
       <c r="W13" t="n">
-        <v>325.9497672885051</v>
+        <v>734.0656246722697</v>
       </c>
       <c r="X13" t="n">
-        <v>325.9497672885051</v>
+        <v>686.8425418871681</v>
       </c>
       <c r="Y13" t="n">
-        <v>325.9497672885051</v>
+        <v>486.675998527754</v>
       </c>
     </row>
     <row r="14">
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2254.704078858544</v>
+        <v>2274.651423446268</v>
       </c>
       <c r="C14" t="n">
-        <v>1906.367597702248</v>
+        <v>1926.314942289973</v>
       </c>
       <c r="D14" t="n">
-        <v>1568.727934879613</v>
+        <v>1588.675279467338</v>
       </c>
       <c r="E14" t="n">
-        <v>1203.565718065485</v>
+        <v>1223.51306265321</v>
       </c>
       <c r="F14" t="n">
-        <v>813.2058490599936</v>
+        <v>833.1531936477188</v>
       </c>
       <c r="G14" t="n">
-        <v>416.7212292178477</v>
+        <v>436.668573805573</v>
       </c>
       <c r="H14" t="n">
-        <v>118.8898928282084</v>
+        <v>138.837237415934</v>
       </c>
       <c r="I14" t="n">
         <v>73.46830195908777</v>
@@ -5285,13 +5285,13 @@
         <v>1210.096241442436</v>
       </c>
       <c r="M14" t="n">
-        <v>1837.877529641654</v>
+        <v>1837.877529641655</v>
       </c>
       <c r="N14" t="n">
-        <v>2461.184977863253</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O14" t="n">
-        <v>3004.568888469953</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P14" t="n">
         <v>3430.660101634156</v>
@@ -5303,25 +5303,25 @@
         <v>3673.415097954388</v>
       </c>
       <c r="S14" t="n">
-        <v>3537.304858089303</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="T14" t="n">
-        <v>3343.030901807208</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="U14" t="n">
-        <v>3343.030901807208</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="V14" t="n">
-        <v>3343.030901807208</v>
+        <v>3362.978246394934</v>
       </c>
       <c r="W14" t="n">
-        <v>3343.030901807208</v>
+        <v>3362.978246394934</v>
       </c>
       <c r="X14" t="n">
-        <v>2990.191179330245</v>
+        <v>3010.13852391797</v>
       </c>
       <c r="Y14" t="n">
-        <v>2620.677883138549</v>
+        <v>2640.625227726274</v>
       </c>
     </row>
     <row r="15">
@@ -5361,19 +5361,19 @@
         <v>518.4857520746641</v>
       </c>
       <c r="L15" t="n">
-        <v>750.2690295566954</v>
+        <v>653.1108991091194</v>
       </c>
       <c r="M15" t="n">
-        <v>1387.775107572711</v>
+        <v>1290.616977125135</v>
       </c>
       <c r="N15" t="n">
-        <v>2057.861087902729</v>
+        <v>1960.702957455153</v>
       </c>
       <c r="O15" t="n">
-        <v>2214.519473647356</v>
+        <v>2117.36134319978</v>
       </c>
       <c r="P15" t="n">
-        <v>2636.196714164933</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q15" t="n">
         <v>2657.402498082636</v>
@@ -5410,16 +5410,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>310.4331638638239</v>
+        <v>202.9589055873074</v>
       </c>
       <c r="C16" t="n">
-        <v>310.4331638638239</v>
+        <v>202.9589055873074</v>
       </c>
       <c r="D16" t="n">
-        <v>310.4331638638239</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="E16" t="n">
-        <v>199.7322136728821</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="F16" t="n">
         <v>73.46830195908777</v>
@@ -5434,10 +5434,10 @@
         <v>73.46830195908777</v>
       </c>
       <c r="J16" t="n">
-        <v>75.45401965814345</v>
+        <v>75.45401965814355</v>
       </c>
       <c r="K16" t="n">
-        <v>195.5491741164733</v>
+        <v>195.5491741164734</v>
       </c>
       <c r="L16" t="n">
         <v>399.1026573432034</v>
@@ -5446,7 +5446,7 @@
         <v>623.0114736459852</v>
       </c>
       <c r="N16" t="n">
-        <v>847.5115364327547</v>
+        <v>847.5115364327548</v>
       </c>
       <c r="O16" t="n">
         <v>1040.400604995801</v>
@@ -5464,22 +5464,22 @@
         <v>1020.646265652341</v>
       </c>
       <c r="T16" t="n">
-        <v>1020.646265652341</v>
+        <v>832.9390122456897</v>
       </c>
       <c r="U16" t="n">
-        <v>1020.646265652341</v>
+        <v>832.9390122456897</v>
       </c>
       <c r="V16" t="n">
-        <v>786.5878132305697</v>
+        <v>832.9390122456897</v>
       </c>
       <c r="W16" t="n">
-        <v>517.7966789777252</v>
+        <v>564.1478779928452</v>
       </c>
       <c r="X16" t="n">
-        <v>310.4331638638239</v>
+        <v>564.1478779928452</v>
       </c>
       <c r="Y16" t="n">
-        <v>310.4331638638239</v>
+        <v>363.9813346334311</v>
       </c>
     </row>
     <row r="17">
@@ -5495,16 +5495,16 @@
         <v>1588.825123454954</v>
       </c>
       <c r="D17" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.197071096532</v>
       </c>
       <c r="E17" t="n">
         <v>1010.046464746615</v>
       </c>
       <c r="F17" t="n">
-        <v>681.6982062053352</v>
+        <v>681.6982062053356</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2251968274013</v>
+        <v>347.2251968274018</v>
       </c>
       <c r="H17" t="n">
         <v>111.4054709019728</v>
@@ -5513,22 +5513,22 @@
         <v>73.46830195908777</v>
       </c>
       <c r="J17" t="n">
-        <v>260.2054441404283</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K17" t="n">
-        <v>660.820817907538</v>
+        <v>660.8208179075377</v>
       </c>
       <c r="L17" t="n">
         <v>1210.096241442436</v>
       </c>
       <c r="M17" t="n">
-        <v>1837.877529641654</v>
+        <v>1837.877529641655</v>
       </c>
       <c r="N17" t="n">
-        <v>2461.184977863253</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O17" t="n">
-        <v>3004.568888469953</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P17" t="n">
         <v>3430.660101634156</v>
@@ -5592,25 +5592,25 @@
         <v>73.46830195908777</v>
       </c>
       <c r="J18" t="n">
-        <v>73.46830195908777</v>
+        <v>190.9942848817977</v>
       </c>
       <c r="K18" t="n">
-        <v>139.1391845095014</v>
+        <v>518.4857520746641</v>
       </c>
       <c r="L18" t="n">
-        <v>273.7643315439567</v>
+        <v>653.1108991091194</v>
       </c>
       <c r="M18" t="n">
-        <v>911.2704095599726</v>
+        <v>1290.616977125135</v>
       </c>
       <c r="N18" t="n">
-        <v>1581.356389889991</v>
+        <v>1960.702957455153</v>
       </c>
       <c r="O18" t="n">
-        <v>2127.938471718579</v>
+        <v>2507.285039283742</v>
       </c>
       <c r="P18" t="n">
-        <v>2549.615712236156</v>
+        <v>2613.684138847781</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.402498082636</v>
@@ -5647,40 +5647,40 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>514.4612609485869</v>
+        <v>556.6438483590757</v>
       </c>
       <c r="C19" t="n">
-        <v>428.1627242690079</v>
+        <v>470.3453116794966</v>
       </c>
       <c r="D19" t="n">
-        <v>360.683731105</v>
+        <v>402.8663185154887</v>
       </c>
       <c r="E19" t="n">
-        <v>295.4082837709347</v>
+        <v>337.5908711814235</v>
       </c>
       <c r="F19" t="n">
-        <v>231.1559825213521</v>
+        <v>273.338569931841</v>
       </c>
       <c r="G19" t="n">
-        <v>145.1765233377221</v>
+        <v>187.3591107482107</v>
       </c>
       <c r="H19" t="n">
-        <v>73.46830195908777</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I19" t="n">
         <v>73.46830195908777</v>
       </c>
       <c r="J19" t="n">
-        <v>136.2315990741176</v>
+        <v>136.2315990741174</v>
       </c>
       <c r="K19" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L19" t="n">
-        <v>581.4353955911256</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M19" t="n">
-        <v>866.1217913098815</v>
+        <v>866.1217913098812</v>
       </c>
       <c r="N19" t="n">
         <v>1151.399433512625</v>
@@ -5695,28 +5695,28 @@
         <v>1693.85996120919</v>
       </c>
       <c r="R19" t="n">
-        <v>1693.85996120919</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S19" t="n">
-        <v>1568.878511444344</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T19" t="n">
-        <v>1482.320372655248</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.805282821582</v>
+        <v>1317.987870232071</v>
       </c>
       <c r="V19" t="n">
-        <v>1103.758440864023</v>
+        <v>1145.941028274512</v>
       </c>
       <c r="W19" t="n">
-        <v>896.9789170753904</v>
+        <v>939.1615044858793</v>
       </c>
       <c r="X19" t="n">
-        <v>751.627012425701</v>
+        <v>793.8095998361898</v>
       </c>
       <c r="Y19" t="n">
-        <v>613.4720795304987</v>
+        <v>655.6546669409876</v>
       </c>
     </row>
     <row r="20">
@@ -5726,22 +5726,22 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C20" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D20" t="n">
         <v>1313.197071096531</v>
       </c>
       <c r="E20" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F20" t="n">
-        <v>681.6982062053352</v>
+        <v>681.6982062053346</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2251968274013</v>
+        <v>347.2251968274007</v>
       </c>
       <c r="H20" t="n">
         <v>111.4054709019728</v>
@@ -5783,19 +5783,19 @@
         <v>3467.054122735633</v>
       </c>
       <c r="U20" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V20" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W20" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X20" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y20" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="21">
@@ -5835,16 +5835,16 @@
         <v>518.4857520746641</v>
       </c>
       <c r="L21" t="n">
-        <v>857.5706556517425</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M21" t="n">
-        <v>1495.076733667758</v>
+        <v>1264.423847230377</v>
       </c>
       <c r="N21" t="n">
-        <v>2165.162713997776</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O21" t="n">
-        <v>2321.821099742403</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P21" t="n">
         <v>2428.220199306442</v>
@@ -5884,40 +5884,40 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>514.461260948587</v>
+        <v>508.6931667163675</v>
       </c>
       <c r="C22" t="n">
-        <v>428.1627242690079</v>
+        <v>422.3946300367888</v>
       </c>
       <c r="D22" t="n">
-        <v>360.683731105</v>
+        <v>354.915636872781</v>
       </c>
       <c r="E22" t="n">
-        <v>295.4082837709348</v>
+        <v>289.6401895387157</v>
       </c>
       <c r="F22" t="n">
-        <v>231.1559825213523</v>
+        <v>273.3385699318411</v>
       </c>
       <c r="G22" t="n">
-        <v>145.1765233377221</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H22" t="n">
-        <v>73.46830195908777</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I22" t="n">
         <v>73.46830195908777</v>
       </c>
       <c r="J22" t="n">
-        <v>136.2315990741178</v>
+        <v>136.2315990741174</v>
       </c>
       <c r="K22" t="n">
-        <v>317.1043329484216</v>
+        <v>317.1043329484213</v>
       </c>
       <c r="L22" t="n">
-        <v>581.4353955911258</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M22" t="n">
-        <v>866.1217913098815</v>
+        <v>866.1217913098811</v>
       </c>
       <c r="N22" t="n">
         <v>1151.399433512625</v>
@@ -5944,16 +5944,16 @@
         <v>1171.026370007451</v>
       </c>
       <c r="V22" t="n">
-        <v>998.9795280498923</v>
+        <v>998.979528049892</v>
       </c>
       <c r="W22" t="n">
-        <v>792.2000042612596</v>
+        <v>792.2000042612592</v>
       </c>
       <c r="X22" t="n">
-        <v>751.6270124257012</v>
+        <v>646.8480996115698</v>
       </c>
       <c r="Y22" t="n">
-        <v>613.4720795304988</v>
+        <v>508.6931667163675</v>
       </c>
     </row>
     <row r="23">
@@ -5969,55 +5969,55 @@
         <v>1588.825123454953</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E23" t="n">
         <v>1010.046464746614</v>
       </c>
       <c r="F23" t="n">
-        <v>681.6982062053346</v>
+        <v>681.6982062053343</v>
       </c>
       <c r="G23" t="n">
-        <v>347.2251968274007</v>
+        <v>347.2251968274004</v>
       </c>
       <c r="H23" t="n">
         <v>111.4054709019728</v>
       </c>
       <c r="I23" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J23" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404296</v>
       </c>
       <c r="K23" t="n">
-        <v>660.8208179075382</v>
+        <v>660.8208179075392</v>
       </c>
       <c r="L23" t="n">
-        <v>1210.096241442436</v>
+        <v>1210.096241442437</v>
       </c>
       <c r="M23" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641656</v>
       </c>
       <c r="N23" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863255</v>
       </c>
       <c r="O23" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469955</v>
       </c>
       <c r="P23" t="n">
         <v>3430.660101634156</v>
       </c>
       <c r="Q23" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="R23" t="n">
-        <v>3673.415097954388</v>
+        <v>3673.415097954389</v>
       </c>
       <c r="S23" t="n">
         <v>3599.316468553515</v>
       </c>
       <c r="T23" t="n">
-        <v>3467.054122735633</v>
+        <v>3467.054122735632</v>
       </c>
       <c r="U23" t="n">
         <v>3295.998235820096</v>
@@ -6051,10 +6051,10 @@
         <v>664.0543578015754</v>
       </c>
       <c r="E24" t="n">
-        <v>504.8169027961198</v>
+        <v>504.81690279612</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2823448230048</v>
+        <v>358.2823448230049</v>
       </c>
       <c r="G24" t="n">
         <v>220.8287085867323</v>
@@ -6063,28 +6063,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I24" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J24" t="n">
-        <v>190.9942848817977</v>
+        <v>190.9942848817978</v>
       </c>
       <c r="K24" t="n">
-        <v>518.4857520746641</v>
+        <v>518.4857520746642</v>
       </c>
       <c r="L24" t="n">
         <v>1020.242840959544</v>
       </c>
       <c r="M24" t="n">
-        <v>1657.74891897556</v>
+        <v>1264.423847230377</v>
       </c>
       <c r="N24" t="n">
-        <v>1853.28594870546</v>
+        <v>1459.960876960276</v>
       </c>
       <c r="O24" t="n">
-        <v>2399.868030534049</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P24" t="n">
-        <v>2506.267130098088</v>
+        <v>2428.220199306442</v>
       </c>
       <c r="Q24" t="n">
         <v>2657.402498082636</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>556.6438483590754</v>
+        <v>556.6438483590758</v>
       </c>
       <c r="C25" t="n">
-        <v>470.3453116794967</v>
+        <v>470.3453116794968</v>
       </c>
       <c r="D25" t="n">
-        <v>402.8663185154888</v>
+        <v>402.8663185154889</v>
       </c>
       <c r="E25" t="n">
-        <v>337.5908711814235</v>
+        <v>337.5908711814236</v>
       </c>
       <c r="F25" t="n">
-        <v>273.3385699318409</v>
+        <v>273.3385699318411</v>
       </c>
       <c r="G25" t="n">
-        <v>187.3591107482106</v>
+        <v>187.3591107482108</v>
       </c>
       <c r="H25" t="n">
-        <v>115.6508893695764</v>
+        <v>115.6508893695765</v>
       </c>
       <c r="I25" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908778</v>
       </c>
       <c r="J25" t="n">
         <v>136.2315990741175</v>
       </c>
       <c r="K25" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484213</v>
       </c>
       <c r="L25" t="n">
         <v>581.4353955911254</v>
       </c>
       <c r="M25" t="n">
-        <v>866.1217913098815</v>
+        <v>866.121791309881</v>
       </c>
       <c r="N25" t="n">
-        <v>1151.399433512625</v>
+        <v>1151.399433512624</v>
       </c>
       <c r="O25" t="n">
         <v>1405.066081491645</v>
       </c>
       <c r="P25" t="n">
-        <v>1610.290558075366</v>
+        <v>1610.290558075365</v>
       </c>
       <c r="Q25" t="n">
-        <v>1693.85996120919</v>
+        <v>1693.859961209189</v>
       </c>
       <c r="R25" t="n">
-        <v>1693.508981695709</v>
+        <v>1645.558300053001</v>
       </c>
       <c r="S25" t="n">
-        <v>1568.527531930863</v>
+        <v>1529.383417617574</v>
       </c>
       <c r="T25" t="n">
-        <v>1425.492141483825</v>
+        <v>1386.348027170535</v>
       </c>
       <c r="U25" t="n">
-        <v>1218.977051650159</v>
+        <v>1179.832937336869</v>
       </c>
       <c r="V25" t="n">
-        <v>1046.9302096926</v>
+        <v>1007.78609537931</v>
       </c>
       <c r="W25" t="n">
-        <v>840.1506859039671</v>
+        <v>801.0065715906774</v>
       </c>
       <c r="X25" t="n">
-        <v>694.7987812542776</v>
+        <v>655.6546669409877</v>
       </c>
       <c r="Y25" t="n">
-        <v>556.6438483590754</v>
+        <v>655.6546669409877</v>
       </c>
     </row>
     <row r="26">
@@ -6212,10 +6212,10 @@
         <v>1010.046464746614</v>
       </c>
       <c r="F26" t="n">
-        <v>681.6982062053346</v>
+        <v>681.6982062053341</v>
       </c>
       <c r="G26" t="n">
-        <v>347.2251968274007</v>
+        <v>347.2251968274004</v>
       </c>
       <c r="H26" t="n">
         <v>111.4054709019728</v>
@@ -6227,7 +6227,7 @@
         <v>260.2054441404284</v>
       </c>
       <c r="K26" t="n">
-        <v>660.8208179075377</v>
+        <v>660.8208179075382</v>
       </c>
       <c r="L26" t="n">
         <v>1210.096241442436</v>
@@ -6312,7 +6312,7 @@
         <v>1020.242840959544</v>
       </c>
       <c r="M27" t="n">
-        <v>1264.423847230377</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N27" t="n">
         <v>1459.960876960276</v>
@@ -6358,7 +6358,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>556.6438483590757</v>
+        <v>556.6438483590756</v>
       </c>
       <c r="C28" t="n">
         <v>470.3453116794966</v>
@@ -6382,16 +6382,16 @@
         <v>73.46830195908777</v>
       </c>
       <c r="J28" t="n">
-        <v>136.2315990741178</v>
+        <v>136.2315990741174</v>
       </c>
       <c r="K28" t="n">
-        <v>317.1043329484216</v>
+        <v>317.1043329484212</v>
       </c>
       <c r="L28" t="n">
-        <v>581.4353955911258</v>
+        <v>581.4353955911254</v>
       </c>
       <c r="M28" t="n">
-        <v>866.1217913098815</v>
+        <v>866.1217913098812</v>
       </c>
       <c r="N28" t="n">
         <v>1151.399433512625</v>
@@ -6421,13 +6421,13 @@
         <v>998.979528049892</v>
       </c>
       <c r="W28" t="n">
-        <v>792.2000042612592</v>
+        <v>939.161504485879</v>
       </c>
       <c r="X28" t="n">
-        <v>655.6546669409876</v>
+        <v>793.8095998361896</v>
       </c>
       <c r="Y28" t="n">
-        <v>655.6546669409876</v>
+        <v>655.6546669409875</v>
       </c>
     </row>
     <row r="29">
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C29" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D29" t="n">
-        <v>1313.197071096532</v>
+        <v>1313.197071096531</v>
       </c>
       <c r="E29" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F29" t="n">
-        <v>681.6982062053356</v>
+        <v>681.6982062053346</v>
       </c>
       <c r="G29" t="n">
-        <v>347.2251968274018</v>
+        <v>347.2251968274004</v>
       </c>
       <c r="H29" t="n">
         <v>111.4054709019728</v>
@@ -6494,19 +6494,19 @@
         <v>3467.054122735633</v>
       </c>
       <c r="U29" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820095</v>
       </c>
       <c r="V29" t="n">
-        <v>3047.572994724855</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W29" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703066</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690314</v>
       </c>
       <c r="Y29" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="30">
@@ -6543,19 +6543,19 @@
         <v>190.9942848817977</v>
       </c>
       <c r="K30" t="n">
-        <v>440.4388212830187</v>
+        <v>518.4857520746641</v>
       </c>
       <c r="L30" t="n">
-        <v>942.1959101678985</v>
+        <v>1020.242840959544</v>
       </c>
       <c r="M30" t="n">
-        <v>1579.701988183914</v>
+        <v>1654.347543314339</v>
       </c>
       <c r="N30" t="n">
-        <v>1775.239017913814</v>
+        <v>1849.884573044239</v>
       </c>
       <c r="O30" t="n">
-        <v>2321.821099742403</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P30" t="n">
         <v>2428.220199306442</v>
@@ -6595,34 +6595,34 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>409.6823481344553</v>
+        <v>409.6823481344557</v>
       </c>
       <c r="C31" t="n">
-        <v>323.3838114548762</v>
+        <v>398.6370903008626</v>
       </c>
       <c r="D31" t="n">
-        <v>255.9048182908683</v>
+        <v>331.1580971368547</v>
       </c>
       <c r="E31" t="n">
-        <v>255.9048182908683</v>
+        <v>265.8826498027894</v>
       </c>
       <c r="F31" t="n">
-        <v>191.6525170412858</v>
+        <v>201.6303485532069</v>
       </c>
       <c r="G31" t="n">
-        <v>105.6730578576556</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="H31" t="n">
-        <v>73.46830195908777</v>
+        <v>115.6508893695764</v>
       </c>
       <c r="I31" t="n">
         <v>73.46830195908777</v>
       </c>
       <c r="J31" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K31" t="n">
-        <v>317.1043329484212</v>
+        <v>317.1043329484213</v>
       </c>
       <c r="L31" t="n">
         <v>581.4353955911254</v>
@@ -6655,16 +6655,16 @@
         <v>1171.026370007451</v>
       </c>
       <c r="V31" t="n">
-        <v>998.9795280498922</v>
+        <v>998.979528049892</v>
       </c>
       <c r="W31" t="n">
-        <v>792.2000042612594</v>
+        <v>792.2000042612592</v>
       </c>
       <c r="X31" t="n">
-        <v>646.84809961157</v>
+        <v>646.8480996115698</v>
       </c>
       <c r="Y31" t="n">
-        <v>508.6931667163671</v>
+        <v>508.6931667163675</v>
       </c>
     </row>
     <row r="32">
@@ -6674,55 +6674,55 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1920.801926772176</v>
+        <v>1923.027428700808</v>
       </c>
       <c r="C32" t="n">
-        <v>1640.641341683957</v>
+        <v>1642.866843612589</v>
       </c>
       <c r="D32" t="n">
-        <v>1371.177574929399</v>
+        <v>1373.403076858031</v>
       </c>
       <c r="E32" t="n">
-        <v>1074.191254183348</v>
+        <v>1076.416756111979</v>
       </c>
       <c r="F32" t="n">
-        <v>752.0072812459327</v>
+        <v>752.007281245933</v>
       </c>
       <c r="G32" t="n">
-        <v>423.6985574718638</v>
+        <v>334.8966256196712</v>
       </c>
       <c r="H32" t="n">
-        <v>194.0431171503006</v>
+        <v>105.241185298108</v>
       </c>
       <c r="I32" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J32" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404283</v>
       </c>
       <c r="K32" t="n">
-        <v>660.8208179075377</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L32" t="n">
         <v>1210.096241442436</v>
       </c>
       <c r="M32" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641654</v>
       </c>
       <c r="N32" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863253</v>
       </c>
       <c r="O32" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469953</v>
       </c>
       <c r="P32" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634154</v>
       </c>
       <c r="Q32" t="n">
         <v>3673.415097954388</v>
       </c>
       <c r="R32" t="n">
-        <v>3671.97824767724</v>
+        <v>3671.978247677241</v>
       </c>
       <c r="S32" t="n">
         <v>3604.043903880232</v>
@@ -6731,10 +6731,10 @@
         <v>3477.945843666214</v>
       </c>
       <c r="U32" t="n">
-        <v>3313.054242354542</v>
+        <v>3313.054242354543</v>
       </c>
       <c r="V32" t="n">
-        <v>3070.793286863164</v>
+        <v>3070.793286863165</v>
       </c>
       <c r="W32" t="n">
         <v>2806.826563445243</v>
@@ -6743,7 +6743,7 @@
         <v>2522.162737036356</v>
       </c>
       <c r="Y32" t="n">
-        <v>2218.599834984105</v>
+        <v>2220.825336912737</v>
       </c>
     </row>
     <row r="33">
@@ -6774,19 +6774,19 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I33" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J33" t="n">
-        <v>190.9942848817977</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K33" t="n">
-        <v>518.4857520746641</v>
+        <v>400.9597691519542</v>
       </c>
       <c r="L33" t="n">
-        <v>1020.242840959544</v>
+        <v>902.7168580368341</v>
       </c>
       <c r="M33" t="n">
-        <v>1196.70090586306</v>
+        <v>1264.423847230377</v>
       </c>
       <c r="N33" t="n">
         <v>1459.960876960276</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.493849132022</v>
+        <v>513.4938491320222</v>
       </c>
       <c r="C34" t="n">
-        <v>433.3595980563077</v>
+        <v>433.359598056308</v>
       </c>
       <c r="D34" t="n">
-        <v>372.0448904961647</v>
+        <v>372.0448904961649</v>
       </c>
       <c r="E34" t="n">
-        <v>312.9337287659642</v>
+        <v>312.9337287659644</v>
       </c>
       <c r="F34" t="n">
-        <v>254.8457131202465</v>
+        <v>254.8457131202467</v>
       </c>
       <c r="G34" t="n">
-        <v>175.0305395404811</v>
+        <v>175.0305395404812</v>
       </c>
       <c r="H34" t="n">
-        <v>109.4866037657116</v>
+        <v>109.4866037657117</v>
       </c>
       <c r="I34" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J34" t="n">
         <v>142.2732153944654</v>
       </c>
       <c r="K34" t="n">
-        <v>329.1875655891171</v>
+        <v>329.1875655891172</v>
       </c>
       <c r="L34" t="n">
-        <v>599.5602445521691</v>
+        <v>599.560244552169</v>
       </c>
       <c r="M34" t="n">
         <v>890.2882565912728</v>
@@ -6871,7 +6871,7 @@
         <v>1181.607515114364</v>
       </c>
       <c r="O34" t="n">
-        <v>1441.315779413733</v>
+        <v>1441.315779413732</v>
       </c>
       <c r="P34" t="n">
         <v>1652.581872317801</v>
@@ -6892,16 +6892,16 @@
         <v>1244.016442985694</v>
       </c>
       <c r="V34" t="n">
-        <v>1078.133886631999</v>
+        <v>1078.133886632</v>
       </c>
       <c r="W34" t="n">
-        <v>877.5186484472314</v>
+        <v>877.5186484472315</v>
       </c>
       <c r="X34" t="n">
-        <v>738.3310294014067</v>
+        <v>738.3310294014068</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.340382110069</v>
+        <v>606.3403821100693</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1830.11296871472</v>
+        <v>1830.112968714718</v>
       </c>
       <c r="C35" t="n">
-        <v>1549.952383626501</v>
+        <v>1549.952383626499</v>
       </c>
       <c r="D35" t="n">
-        <v>1280.488616871943</v>
+        <v>1280.488616871941</v>
       </c>
       <c r="E35" t="n">
-        <v>983.5022961258912</v>
+        <v>983.5022961258893</v>
       </c>
       <c r="F35" t="n">
-        <v>661.3183231884764</v>
+        <v>661.3183231884744</v>
       </c>
       <c r="G35" t="n">
-        <v>333.0095994144073</v>
+        <v>333.0095994144062</v>
       </c>
       <c r="H35" t="n">
-        <v>103.3541590928433</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I35" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J35" t="n">
-        <v>258.3184179351636</v>
+        <v>165.8541338771909</v>
       </c>
       <c r="K35" t="n">
-        <v>566.4695076443032</v>
+        <v>566.4695076443005</v>
       </c>
       <c r="L35" t="n">
-        <v>1115.744931179201</v>
+        <v>1115.744931179198</v>
       </c>
       <c r="M35" t="n">
-        <v>1743.52621937842</v>
+        <v>1743.526219378417</v>
       </c>
       <c r="N35" t="n">
-        <v>2366.833667600019</v>
+        <v>2366.833667600016</v>
       </c>
       <c r="O35" t="n">
-        <v>2910.217578206719</v>
+        <v>2910.217578206716</v>
       </c>
       <c r="P35" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370917</v>
       </c>
       <c r="Q35" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.06378769115</v>
       </c>
       <c r="R35" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.06378769115</v>
       </c>
       <c r="S35" t="n">
-        <v>3511.129443894145</v>
+        <v>3511.129443894141</v>
       </c>
       <c r="T35" t="n">
-        <v>3385.031383680127</v>
+        <v>3385.031383680123</v>
       </c>
       <c r="U35" t="n">
-        <v>3220.139782368455</v>
+        <v>3220.139782368452</v>
       </c>
       <c r="V35" t="n">
-        <v>2977.878826877077</v>
+        <v>2977.878826877074</v>
       </c>
       <c r="W35" t="n">
-        <v>2713.912103459155</v>
+        <v>2713.912103459153</v>
       </c>
       <c r="X35" t="n">
-        <v>2429.248277050268</v>
+        <v>2429.248277050266</v>
       </c>
       <c r="Y35" t="n">
-        <v>2127.91087692665</v>
+        <v>2127.910876926647</v>
       </c>
     </row>
     <row r="36">
@@ -6990,16 +6990,16 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>985.554770538689</v>
+        <v>985.5547705386888</v>
       </c>
       <c r="C36" t="n">
-        <v>811.101741257562</v>
+        <v>811.1017412575618</v>
       </c>
       <c r="D36" t="n">
-        <v>662.1673315963108</v>
+        <v>662.1673315963105</v>
       </c>
       <c r="E36" t="n">
-        <v>502.9298765908552</v>
+        <v>502.9298765908551</v>
       </c>
       <c r="F36" t="n">
         <v>356.3953186177401</v>
@@ -7008,10 +7008,10 @@
         <v>218.9416823814676</v>
       </c>
       <c r="H36" t="n">
-        <v>117.9075054592597</v>
+        <v>117.9075054592596</v>
       </c>
       <c r="I36" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J36" t="n">
         <v>189.107258676533</v>
@@ -7053,7 +7053,7 @@
         <v>1823.619263257445</v>
       </c>
       <c r="W36" t="n">
-        <v>1569.381906529244</v>
+        <v>1569.381906529243</v>
       </c>
       <c r="X36" t="n">
         <v>1361.530406323711</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.6068229267576</v>
+        <v>511.6068229267572</v>
       </c>
       <c r="C37" t="n">
-        <v>431.4725718510433</v>
+        <v>431.472571851043</v>
       </c>
       <c r="D37" t="n">
-        <v>370.1578642909002</v>
+        <v>370.1578642909</v>
       </c>
       <c r="E37" t="n">
-        <v>311.0467025606997</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F37" t="n">
-        <v>252.958686914982</v>
+        <v>252.9586869149819</v>
       </c>
       <c r="G37" t="n">
-        <v>173.1435133352165</v>
+        <v>173.1435133352164</v>
       </c>
       <c r="H37" t="n">
         <v>107.599577560447</v>
       </c>
       <c r="I37" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382301</v>
       </c>
       <c r="J37" t="n">
-        <v>140.3861891892007</v>
+        <v>140.3861891892001</v>
       </c>
       <c r="K37" t="n">
-        <v>327.3005393838524</v>
+        <v>327.3005393838519</v>
       </c>
       <c r="L37" t="n">
-        <v>597.6732183469044</v>
+        <v>597.6732183469038</v>
       </c>
       <c r="M37" t="n">
-        <v>888.4012303860085</v>
+        <v>888.4012303860076</v>
       </c>
       <c r="N37" t="n">
-        <v>1179.7204889091</v>
+        <v>1179.720488909099</v>
       </c>
       <c r="O37" t="n">
-        <v>1439.428753208468</v>
+        <v>1439.428753208467</v>
       </c>
       <c r="P37" t="n">
-        <v>1650.694846112537</v>
+        <v>1650.694846112536</v>
       </c>
       <c r="Q37" t="n">
-        <v>1740.305865566709</v>
+        <v>1740.305865566708</v>
       </c>
       <c r="R37" t="n">
-        <v>1698.168490014385</v>
+        <v>1698.168490014384</v>
       </c>
       <c r="S37" t="n">
-        <v>1579.351325853404</v>
+        <v>1579.351325853403</v>
       </c>
       <c r="T37" t="n">
-        <v>1442.48022101023</v>
+        <v>1442.480221010229</v>
       </c>
       <c r="U37" t="n">
         <v>1242.129416780429</v>
       </c>
       <c r="V37" t="n">
-        <v>1076.246860426735</v>
+        <v>1076.246860426734</v>
       </c>
       <c r="W37" t="n">
-        <v>875.6316222419669</v>
+        <v>875.6316222419662</v>
       </c>
       <c r="X37" t="n">
-        <v>736.4440031961421</v>
+        <v>736.4440031961416</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.4533559048047</v>
+        <v>604.4533559048042</v>
       </c>
     </row>
     <row r="38">
@@ -7154,70 +7154,70 @@
         <v>1549.9523836265</v>
       </c>
       <c r="D38" t="n">
-        <v>1280.488616871942</v>
+        <v>1280.488616871943</v>
       </c>
       <c r="E38" t="n">
-        <v>983.5022961258901</v>
+        <v>983.502296125891</v>
       </c>
       <c r="F38" t="n">
-        <v>661.3183231884752</v>
+        <v>661.3183231884761</v>
       </c>
       <c r="G38" t="n">
-        <v>333.0095994144062</v>
+        <v>333.0095994144071</v>
       </c>
       <c r="H38" t="n">
         <v>103.3541590928433</v>
       </c>
       <c r="I38" t="n">
-        <v>71.58127575382304</v>
+        <v>71.58127575382306</v>
       </c>
       <c r="J38" t="n">
-        <v>258.3184179351636</v>
+        <v>165.8541338771924</v>
       </c>
       <c r="K38" t="n">
-        <v>658.9337917022731</v>
+        <v>566.4695076443021</v>
       </c>
       <c r="L38" t="n">
-        <v>1208.209215237171</v>
+        <v>1115.7449311792</v>
       </c>
       <c r="M38" t="n">
-        <v>1835.99050343639</v>
+        <v>1743.526219378419</v>
       </c>
       <c r="N38" t="n">
-        <v>2459.297951657989</v>
+        <v>2366.833667600019</v>
       </c>
       <c r="O38" t="n">
-        <v>3002.681862264689</v>
+        <v>2910.217578206719</v>
       </c>
       <c r="P38" t="n">
-        <v>3428.77307542889</v>
+        <v>3336.30879137092</v>
       </c>
       <c r="Q38" t="n">
-        <v>3579.063787691152</v>
+        <v>3579.063787691153</v>
       </c>
       <c r="R38" t="n">
-        <v>3579.063787691152</v>
+        <v>3579.063787691153</v>
       </c>
       <c r="S38" t="n">
-        <v>3511.129443894144</v>
+        <v>3511.129443894145</v>
       </c>
       <c r="T38" t="n">
-        <v>3385.031383680126</v>
+        <v>3385.031383680127</v>
       </c>
       <c r="U38" t="n">
-        <v>3220.139782368453</v>
+        <v>3220.139782368455</v>
       </c>
       <c r="V38" t="n">
-        <v>2977.878826877075</v>
+        <v>2977.878826877077</v>
       </c>
       <c r="W38" t="n">
-        <v>2713.912103459154</v>
+        <v>2713.912103459155</v>
       </c>
       <c r="X38" t="n">
-        <v>2429.248277050267</v>
+        <v>2429.248277050268</v>
       </c>
       <c r="Y38" t="n">
-        <v>2127.910876926648</v>
+        <v>2127.910876926649</v>
       </c>
     </row>
     <row r="39">
@@ -7248,22 +7248,22 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I39" t="n">
-        <v>71.58127575382304</v>
+        <v>71.58127575382306</v>
       </c>
       <c r="J39" t="n">
-        <v>189.107258676533</v>
+        <v>189.1072586765331</v>
       </c>
       <c r="K39" t="n">
-        <v>516.5987258693993</v>
+        <v>516.5987258693996</v>
       </c>
       <c r="L39" t="n">
-        <v>1018.355814754279</v>
+        <v>1018.35581475428</v>
       </c>
       <c r="M39" t="n">
-        <v>1194.813879657795</v>
+        <v>1652.460517109074</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.073850755012</v>
+        <v>1847.997546838974</v>
       </c>
       <c r="O39" t="n">
         <v>2004.655932583601</v>
@@ -7306,46 +7306,46 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>511.6068229267567</v>
+        <v>511.6068229267573</v>
       </c>
       <c r="C40" t="n">
-        <v>431.4725718510425</v>
+        <v>431.472571851043</v>
       </c>
       <c r="D40" t="n">
-        <v>370.1578642908994</v>
+        <v>370.1578642909</v>
       </c>
       <c r="E40" t="n">
-        <v>311.046702560699</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F40" t="n">
-        <v>252.9586869149813</v>
+        <v>252.9586869149817</v>
       </c>
       <c r="G40" t="n">
-        <v>173.1435133352158</v>
+        <v>173.1435133352164</v>
       </c>
       <c r="H40" t="n">
-        <v>107.5995775604464</v>
+        <v>107.599577560447</v>
       </c>
       <c r="I40" t="n">
-        <v>71.58127575382304</v>
+        <v>71.58127575382306</v>
       </c>
       <c r="J40" t="n">
-        <v>140.3861891892004</v>
+        <v>140.3861891892006</v>
       </c>
       <c r="K40" t="n">
-        <v>327.3005393838522</v>
+        <v>327.3005393838524</v>
       </c>
       <c r="L40" t="n">
-        <v>597.6732183469042</v>
+        <v>597.6732183469043</v>
       </c>
       <c r="M40" t="n">
-        <v>888.4012303860077</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N40" t="n">
         <v>1179.720488909099</v>
       </c>
       <c r="O40" t="n">
-        <v>1439.428753208467</v>
+        <v>1439.428753208468</v>
       </c>
       <c r="P40" t="n">
         <v>1650.694846112536</v>
@@ -7354,10 +7354,10 @@
         <v>1740.305865566708</v>
       </c>
       <c r="R40" t="n">
-        <v>1698.168490014384</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S40" t="n">
-        <v>1579.351325853403</v>
+        <v>1579.351325853404</v>
       </c>
       <c r="T40" t="n">
         <v>1442.480221010229</v>
@@ -7366,16 +7366,16 @@
         <v>1242.129416780429</v>
       </c>
       <c r="V40" t="n">
-        <v>1076.246860426734</v>
+        <v>1076.246860426735</v>
       </c>
       <c r="W40" t="n">
-        <v>875.6316222419662</v>
+        <v>875.6316222419666</v>
       </c>
       <c r="X40" t="n">
-        <v>736.4440031961415</v>
+        <v>736.4440031961419</v>
       </c>
       <c r="Y40" t="n">
-        <v>604.4533559048037</v>
+        <v>604.4533559048044</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1830.112968714718</v>
+        <v>1830.11296871472</v>
       </c>
       <c r="C41" t="n">
-        <v>1549.952383626499</v>
+        <v>1549.952383626501</v>
       </c>
       <c r="D41" t="n">
-        <v>1280.488616871941</v>
+        <v>1280.488616871944</v>
       </c>
       <c r="E41" t="n">
-        <v>983.5022961258892</v>
+        <v>983.5022961258919</v>
       </c>
       <c r="F41" t="n">
-        <v>661.3183231884743</v>
+        <v>661.3183231884771</v>
       </c>
       <c r="G41" t="n">
-        <v>333.0095994144053</v>
+        <v>333.0095994144064</v>
       </c>
       <c r="H41" t="n">
-        <v>103.3541590928432</v>
+        <v>103.3541590928433</v>
       </c>
       <c r="I41" t="n">
-        <v>71.58127575382302</v>
+        <v>71.58127575382306</v>
       </c>
       <c r="J41" t="n">
-        <v>258.3184179351636</v>
+        <v>165.8541338771924</v>
       </c>
       <c r="K41" t="n">
-        <v>658.9337917022731</v>
+        <v>566.4695076443021</v>
       </c>
       <c r="L41" t="n">
-        <v>1208.209215237171</v>
+        <v>1115.7449311792</v>
       </c>
       <c r="M41" t="n">
-        <v>1835.99050343639</v>
+        <v>1743.526219378419</v>
       </c>
       <c r="N41" t="n">
-        <v>2459.297951657989</v>
+        <v>2366.833667600019</v>
       </c>
       <c r="O41" t="n">
-        <v>3002.681862264689</v>
+        <v>2910.217578206719</v>
       </c>
       <c r="P41" t="n">
-        <v>3336.308791370918</v>
+        <v>3336.30879137092</v>
       </c>
       <c r="Q41" t="n">
-        <v>3579.063787691151</v>
+        <v>3579.063787691153</v>
       </c>
       <c r="R41" t="n">
-        <v>3579.063787691151</v>
+        <v>3579.063787691153</v>
       </c>
       <c r="S41" t="n">
-        <v>3511.129443894143</v>
+        <v>3511.129443894145</v>
       </c>
       <c r="T41" t="n">
-        <v>3385.031383680125</v>
+        <v>3385.031383680127</v>
       </c>
       <c r="U41" t="n">
-        <v>3220.139782368452</v>
+        <v>3220.139782368455</v>
       </c>
       <c r="V41" t="n">
-        <v>2977.878826877075</v>
+        <v>2977.878826877077</v>
       </c>
       <c r="W41" t="n">
-        <v>2713.912103459153</v>
+        <v>2713.912103459155</v>
       </c>
       <c r="X41" t="n">
-        <v>2429.248277050266</v>
+        <v>2429.248277050268</v>
       </c>
       <c r="Y41" t="n">
-        <v>2127.910876926647</v>
+        <v>2127.91087692665</v>
       </c>
     </row>
     <row r="42">
@@ -7485,16 +7485,16 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I42" t="n">
-        <v>71.58127575382302</v>
+        <v>71.58127575382306</v>
       </c>
       <c r="J42" t="n">
-        <v>189.107258676533</v>
+        <v>189.1072586765331</v>
       </c>
       <c r="K42" t="n">
-        <v>516.5987258693993</v>
+        <v>516.5987258693996</v>
       </c>
       <c r="L42" t="n">
-        <v>1018.355814754279</v>
+        <v>1018.35581475428</v>
       </c>
       <c r="M42" t="n">
         <v>1194.813879657795</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.606822926757</v>
+        <v>511.6068229267573</v>
       </c>
       <c r="C43" t="n">
-        <v>431.4725718510427</v>
+        <v>431.472571851043</v>
       </c>
       <c r="D43" t="n">
-        <v>370.1578642908997</v>
+        <v>370.1578642909</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0467025606993</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F43" t="n">
-        <v>252.9586869149816</v>
+        <v>252.9586869149818</v>
       </c>
       <c r="G43" t="n">
-        <v>173.1435133352161</v>
+        <v>173.1435133352163</v>
       </c>
       <c r="H43" t="n">
-        <v>107.5995775604469</v>
+        <v>107.599577560447</v>
       </c>
       <c r="I43" t="n">
-        <v>71.58127575382302</v>
+        <v>71.58127575382306</v>
       </c>
       <c r="J43" t="n">
         <v>140.3861891892006</v>
       </c>
       <c r="K43" t="n">
-        <v>327.3005393838524</v>
+        <v>327.3005393838526</v>
       </c>
       <c r="L43" t="n">
-        <v>597.6732183469044</v>
+        <v>597.6732183469046</v>
       </c>
       <c r="M43" t="n">
-        <v>888.401230386008</v>
+        <v>888.4012303860086</v>
       </c>
       <c r="N43" t="n">
-        <v>1179.720488909099</v>
+        <v>1179.7204889091</v>
       </c>
       <c r="O43" t="n">
         <v>1439.428753208468</v>
       </c>
       <c r="P43" t="n">
-        <v>1650.694846112536</v>
+        <v>1650.694846112537</v>
       </c>
       <c r="Q43" t="n">
-        <v>1740.305865566708</v>
+        <v>1740.305865566709</v>
       </c>
       <c r="R43" t="n">
-        <v>1698.168490014384</v>
+        <v>1698.168490014385</v>
       </c>
       <c r="S43" t="n">
         <v>1579.351325853404</v>
       </c>
       <c r="T43" t="n">
-        <v>1442.480221010229</v>
+        <v>1442.48022101023</v>
       </c>
       <c r="U43" t="n">
         <v>1242.129416780429</v>
       </c>
       <c r="V43" t="n">
-        <v>1076.246860426734</v>
+        <v>1076.246860426735</v>
       </c>
       <c r="W43" t="n">
-        <v>875.6316222419663</v>
+        <v>875.6316222419669</v>
       </c>
       <c r="X43" t="n">
-        <v>736.4440031961416</v>
+        <v>736.4440031961421</v>
       </c>
       <c r="Y43" t="n">
-        <v>604.4533559048041</v>
+        <v>604.4533559048044</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7622,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1830.112968714719</v>
+        <v>1830.112968714718</v>
       </c>
       <c r="C44" t="n">
-        <v>1549.9523836265</v>
+        <v>1549.952383626499</v>
       </c>
       <c r="D44" t="n">
-        <v>1280.488616871942</v>
+        <v>1280.488616871941</v>
       </c>
       <c r="E44" t="n">
-        <v>983.5022961258901</v>
+        <v>983.5022961258896</v>
       </c>
       <c r="F44" t="n">
-        <v>661.3183231884752</v>
+        <v>661.3183231884748</v>
       </c>
       <c r="G44" t="n">
-        <v>333.0095994144064</v>
+        <v>333.0095994144058</v>
       </c>
       <c r="H44" t="n">
-        <v>103.3541590928433</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I44" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J44" t="n">
-        <v>258.3184179351636</v>
+        <v>258.3184179351637</v>
       </c>
       <c r="K44" t="n">
-        <v>658.9337917022731</v>
+        <v>658.9337917022733</v>
       </c>
       <c r="L44" t="n">
-        <v>1208.209215237171</v>
+        <v>1208.209215237172</v>
       </c>
       <c r="M44" t="n">
-        <v>1835.99050343639</v>
+        <v>1835.990503436391</v>
       </c>
       <c r="N44" t="n">
-        <v>2459.297951657989</v>
+        <v>2459.29795165799</v>
       </c>
       <c r="O44" t="n">
-        <v>3002.681862264689</v>
+        <v>2910.217578206717</v>
       </c>
       <c r="P44" t="n">
-        <v>3428.77307542889</v>
+        <v>3336.308791370918</v>
       </c>
       <c r="Q44" t="n">
-        <v>3579.063787691152</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="R44" t="n">
-        <v>3579.063787691152</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="S44" t="n">
-        <v>3511.129443894144</v>
+        <v>3511.129443894143</v>
       </c>
       <c r="T44" t="n">
-        <v>3385.031383680126</v>
+        <v>3385.031383680125</v>
       </c>
       <c r="U44" t="n">
-        <v>3220.139782368454</v>
+        <v>3220.139782368453</v>
       </c>
       <c r="V44" t="n">
-        <v>2977.878826877076</v>
+        <v>2977.878826877075</v>
       </c>
       <c r="W44" t="n">
-        <v>2713.912103459154</v>
+        <v>2713.912103459153</v>
       </c>
       <c r="X44" t="n">
-        <v>2429.248277050267</v>
+        <v>2429.248277050266</v>
       </c>
       <c r="Y44" t="n">
-        <v>2127.910876926648</v>
+        <v>2127.910876926647</v>
       </c>
     </row>
     <row r="45">
@@ -7701,16 +7701,16 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>985.554770538689</v>
+        <v>985.5547705386888</v>
       </c>
       <c r="C45" t="n">
-        <v>811.101741257562</v>
+        <v>811.1017412575618</v>
       </c>
       <c r="D45" t="n">
-        <v>662.1673315963108</v>
+        <v>662.1673315963105</v>
       </c>
       <c r="E45" t="n">
-        <v>502.9298765908552</v>
+        <v>502.9298765908551</v>
       </c>
       <c r="F45" t="n">
         <v>356.3953186177401</v>
@@ -7719,31 +7719,31 @@
         <v>218.9416823814676</v>
       </c>
       <c r="H45" t="n">
-        <v>117.9075054592597</v>
+        <v>117.9075054592596</v>
       </c>
       <c r="I45" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J45" t="n">
         <v>189.107258676533</v>
       </c>
       <c r="K45" t="n">
-        <v>516.5987258693993</v>
+        <v>516.5987258693995</v>
       </c>
       <c r="L45" t="n">
-        <v>651.2238729038546</v>
+        <v>1018.355814754279</v>
       </c>
       <c r="M45" t="n">
-        <v>1288.729950919871</v>
+        <v>1652.460517109074</v>
       </c>
       <c r="N45" t="n">
-        <v>1958.815931249889</v>
+        <v>1847.997546838974</v>
       </c>
       <c r="O45" t="n">
-        <v>2505.398013078478</v>
+        <v>2004.655932583601</v>
       </c>
       <c r="P45" t="n">
-        <v>2611.797112642517</v>
+        <v>2426.333173101178</v>
       </c>
       <c r="Q45" t="n">
         <v>2655.515471877372</v>
@@ -7764,7 +7764,7 @@
         <v>1823.619263257445</v>
       </c>
       <c r="W45" t="n">
-        <v>1569.381906529244</v>
+        <v>1569.381906529243</v>
       </c>
       <c r="X45" t="n">
         <v>1361.530406323711</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>511.6068229267571</v>
+        <v>511.6068229267578</v>
       </c>
       <c r="C46" t="n">
-        <v>431.4725718510428</v>
+        <v>431.4725718510435</v>
       </c>
       <c r="D46" t="n">
-        <v>370.1578642908997</v>
+        <v>370.1578642909005</v>
       </c>
       <c r="E46" t="n">
-        <v>311.0467025606993</v>
+        <v>311.0467025607001</v>
       </c>
       <c r="F46" t="n">
-        <v>252.9586869149815</v>
+        <v>252.9586869149824</v>
       </c>
       <c r="G46" t="n">
-        <v>173.143513335216</v>
+        <v>173.1435133352169</v>
       </c>
       <c r="H46" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I46" t="n">
-        <v>71.58127575382305</v>
+        <v>71.58127575382302</v>
       </c>
       <c r="J46" t="n">
-        <v>140.3861891892006</v>
+        <v>140.3861891892009</v>
       </c>
       <c r="K46" t="n">
-        <v>327.3005393838523</v>
+        <v>327.3005393838527</v>
       </c>
       <c r="L46" t="n">
-        <v>597.6732183469043</v>
+        <v>597.6732183469048</v>
       </c>
       <c r="M46" t="n">
-        <v>888.4012303860079</v>
+        <v>888.4012303860086</v>
       </c>
       <c r="N46" t="n">
-        <v>1179.720488909099</v>
+        <v>1179.7204889091</v>
       </c>
       <c r="O46" t="n">
         <v>1439.428753208468</v>
       </c>
       <c r="P46" t="n">
-        <v>1650.694846112536</v>
+        <v>1650.694846112537</v>
       </c>
       <c r="Q46" t="n">
-        <v>1740.305865566708</v>
+        <v>1740.305865566709</v>
       </c>
       <c r="R46" t="n">
         <v>1698.168490014385</v>
@@ -7834,22 +7834,22 @@
         <v>1579.351325853404</v>
       </c>
       <c r="T46" t="n">
-        <v>1442.480221010229</v>
+        <v>1442.48022101023</v>
       </c>
       <c r="U46" t="n">
         <v>1242.129416780429</v>
       </c>
       <c r="V46" t="n">
-        <v>1076.246860426734</v>
+        <v>1076.246860426735</v>
       </c>
       <c r="W46" t="n">
-        <v>875.6316222419662</v>
+        <v>875.6316222419667</v>
       </c>
       <c r="X46" t="n">
-        <v>736.4440031961415</v>
+        <v>736.4440031961421</v>
       </c>
       <c r="Y46" t="n">
-        <v>604.4533559048042</v>
+        <v>604.4533559048048</v>
       </c>
     </row>
   </sheetData>
@@ -8058,16 +8058,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K3" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>197.6503338623806</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N3" t="n">
-        <v>372.3560009609923</v>
+        <v>301.248502863135</v>
       </c>
       <c r="O3" t="n">
         <v>383.6105333221035</v>
@@ -8298,13 +8298,13 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>173.111405903722</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
         <v>383.1483227996774</v>
       </c>
       <c r="N6" t="n">
-        <v>372.3560009609923</v>
+        <v>174.6270615612551</v>
       </c>
       <c r="O6" t="n">
         <v>383.6105333221035</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>383.1483227996774</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N9" t="n">
-        <v>186.8580120236956</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8769,22 +8769,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L12" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M12" t="n">
-        <v>63.6071618870119</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N12" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>45.76194904110014</v>
       </c>
       <c r="P12" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -8930,7 +8930,7 @@
         <v>324.1454125711647</v>
       </c>
       <c r="L14" t="n">
-        <v>417.6612145504504</v>
+        <v>417.6612145504507</v>
       </c>
       <c r="M14" t="n">
         <v>449.5135334928325</v>
@@ -8942,7 +8942,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P14" t="n">
-        <v>321.798708171484</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,7 +9009,7 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>98.1395257046222</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>465.7050637499999</v>
@@ -9021,10 +9021,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>206.5250066087106</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9179,7 +9179,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P17" t="n">
-        <v>321.798708171484</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
         <v>212.3149906599047</v>
@@ -9240,10 +9240,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>7.377921277065411</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,10 +9258,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.45555750381456</v>
+        <v>22.73997506782972</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9483,19 +9483,19 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L21" t="n">
-        <v>206.5250066087102</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
-        <v>465.7050637499999</v>
+        <v>68.40701148213813</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P21" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>169.0966151720738</v>
+        <v>169.0966151720751</v>
       </c>
       <c r="K23" t="n">
         <v>324.1454125711647</v>
@@ -9723,7 +9723,7 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M24" t="n">
-        <v>465.7050637499999</v>
+        <v>68.40701148213802</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q24" t="n">
-        <v>131.2420041079243</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R24" t="n">
         <v>45.52166981132082</v>
@@ -9960,10 +9960,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M27" t="n">
-        <v>68.40701148213813</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>68.40701148213802</v>
       </c>
       <c r="O27" t="n">
         <v>393.8623192767295</v>
@@ -10191,22 +10191,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K30" t="n">
-        <v>185.6299533846539</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M30" t="n">
-        <v>465.7050637499999</v>
+        <v>462.2693307588676</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10367,7 +10367,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599061</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10425,7 +10425,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065411</v>
       </c>
       <c r="K33" t="n">
         <v>264.4652370125786</v>
@@ -10434,10 +10434,10 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>187.1201255454815</v>
       </c>
       <c r="N33" t="n">
-        <v>68.40701148213802</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
         <v>393.8623192767295</v>
@@ -10583,10 +10583,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>75.6983484468489</v>
       </c>
       <c r="K35" t="n">
-        <v>230.7471458459426</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>75.69834844685025</v>
       </c>
       <c r="K38" t="n">
         <v>324.1454125711647</v>
@@ -10841,7 +10841,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
-        <v>118.9167239346817</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
         <v>65.71641987298243</v>
@@ -10908,13 +10908,13 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>462.2693307588669</v>
       </c>
       <c r="N39" t="n">
-        <v>68.4070114821383</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
         <v>318.4627686399372</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>75.69834844685025</v>
       </c>
       <c r="K41" t="n">
         <v>324.1454125711647</v>
@@ -11075,7 +11075,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P41" t="n">
-        <v>228.4004414462587</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
         <v>212.3149906599047</v>
@@ -11148,7 +11148,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>68.4070114821383</v>
+        <v>68.40701148213768</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11309,13 +11309,13 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O44" t="n">
-        <v>380.8001812627454</v>
+        <v>287.4019145375199</v>
       </c>
       <c r="P44" t="n">
         <v>321.7987081714826</v>
       </c>
       <c r="Q44" t="n">
-        <v>118.9167239346821</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -11379,22 +11379,22 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>465.7050637499999</v>
+        <v>462.2693307588671</v>
       </c>
       <c r="N45" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>22.73997506782975</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23255,13 +23255,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.3140662372057</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>334.2632661944081</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>98.94929161302582</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23306,22 +23306,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>125.345791348906</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>192.3312167192737</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>50.4086801309393</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>328.8211932911381</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>349.3113252521941</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>34.45682667619548</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>146.8270456723529</v>
@@ -23425,16 +23425,16 @@
         <v>126.0141872202943</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>125.0012725966563</v>
       </c>
       <c r="G13" t="n">
-        <v>146.5111589513637</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>132.3826335244176</v>
       </c>
       <c r="I13" t="n">
-        <v>103.1522558959535</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.2101389041963</v>
       </c>
       <c r="S13" t="n">
         <v>185.1231296267668</v>
       </c>
       <c r="T13" t="n">
-        <v>202.9965309021384</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>231.7178678975531</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>266.1032229103161</v>
       </c>
       <c r="X13" t="n">
-        <v>205.2898799627623</v>
+        <v>158.5390280055115</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.1648779258199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>53.98191665259638</v>
+        <v>34.2340455107481</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,16 +23543,16 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>134.7491374664341</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>192.3312167192737</v>
       </c>
       <c r="U14" t="n">
         <v>230.7368224059507</v>
       </c>
       <c r="V14" t="n">
-        <v>307.33248304386</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>328.8211932911381</v>
@@ -23650,19 +23650,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.4122047556624</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>146.8270456723529</v>
       </c>
       <c r="D16" t="n">
-        <v>128.1956975919375</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>16.42024653126183</v>
+        <v>126.0141872202943</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.0012725966563</v>
       </c>
       <c r="G16" t="n">
         <v>146.5111589513637</v>
@@ -23704,22 +23704,22 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>202.9965309021384</v>
+        <v>17.16635002955359</v>
       </c>
       <c r="U16" t="n">
         <v>265.8414332948985</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>231.7178678975531</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>205.2898799627623</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.1648779258199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>41.7607615363838</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,16 +23935,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.81864454462664</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>55.91247914136333</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>145.4918852223734</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24124,7 +24124,7 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>98.02071039609272</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
@@ -24136,7 +24136,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>47.47117482628072</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24145,7 +24145,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>41.7607615363838</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>103.7311236859897</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24361,7 +24361,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.02071039609272</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.47117482628012</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>8.718501656124673</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24430,7 +24430,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="26">
@@ -24661,13 +24661,13 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>145.4918852223734</v>
       </c>
       <c r="X28" t="n">
-        <v>8.71850165612285</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>136.7733835662502</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>74.5007460575261</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>64.6226928607246</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>39.10843082526585</v>
+        <v>70.99113916484794</v>
       </c>
       <c r="I31" t="n">
-        <v>41.7607615363838</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25141,7 +25141,7 @@
         <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-8.242295734817162e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1249889.629916657</v>
+        <v>1249889.629916656</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1249889.629916657</v>
+        <v>1249889.629916656</v>
       </c>
     </row>
     <row r="10">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>1253465.84711613</v>
+        <v>1253465.847116129</v>
       </c>
     </row>
   </sheetData>
@@ -26326,13 +26326,13 @@
         <v>212736.475267247</v>
       </c>
       <c r="G2" t="n">
-        <v>245264.9893856835</v>
+        <v>245264.9893856834</v>
       </c>
       <c r="H2" t="n">
-        <v>245264.9893856835</v>
+        <v>245264.9893856838</v>
       </c>
       <c r="I2" t="n">
-        <v>245264.9893856838</v>
+        <v>245264.9893856834</v>
       </c>
       <c r="J2" t="n">
         <v>245264.9893856834</v>
@@ -26341,7 +26341,7 @@
         <v>245264.9893856834</v>
       </c>
       <c r="L2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592848</v>
       </c>
       <c r="M2" t="n">
         <v>246312.5309592848</v>
@@ -26353,7 +26353,7 @@
         <v>246312.5309592849</v>
       </c>
       <c r="P2" t="n">
-        <v>246312.5309592849</v>
+        <v>246312.5309592848</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26372,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690849.4200146751</v>
+        <v>690849.420014675</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,7 +26381,7 @@
         <v>49113.19548765575</v>
       </c>
       <c r="H3" t="n">
-        <v>1.13686837721616e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26393,16 +26393,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53995.30968591668</v>
+        <v>53995.30968591664</v>
       </c>
       <c r="M3" t="n">
-        <v>162917.5281914784</v>
+        <v>162917.5281914783</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>1.670698566158535e-10</v>
       </c>
       <c r="O3" t="n">
-        <v>16335.82034101992</v>
+        <v>16335.82034101995</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,10 +26424,10 @@
         <v>346065.6887052709</v>
       </c>
       <c r="E4" t="n">
-        <v>85777.46094060852</v>
+        <v>85777.46094060854</v>
       </c>
       <c r="F4" t="n">
-        <v>85777.46094060855</v>
+        <v>85777.46094060854</v>
       </c>
       <c r="G4" t="n">
         <v>147816.3730406428</v>
@@ -26439,7 +26439,7 @@
         <v>147816.3730406428</v>
       </c>
       <c r="J4" t="n">
-        <v>147816.3730406427</v>
+        <v>147816.3730406428</v>
       </c>
       <c r="K4" t="n">
         <v>147816.3730406428</v>
@@ -26451,10 +26451,10 @@
         <v>152485.3204137546</v>
       </c>
       <c r="N4" t="n">
-        <v>152485.3204137546</v>
+        <v>152485.3204137545</v>
       </c>
       <c r="O4" t="n">
-        <v>152485.3204137546</v>
+        <v>152485.3204137544</v>
       </c>
       <c r="P4" t="n">
         <v>152485.3204137546</v>
@@ -26500,16 +26500,16 @@
         <v>76041.72434256104</v>
       </c>
       <c r="M5" t="n">
+        <v>74607.58442655983</v>
+      </c>
+      <c r="N5" t="n">
         <v>74607.58442655986</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
+        <v>74607.58442655986</v>
+      </c>
+      <c r="P5" t="n">
         <v>74607.58442655984</v>
-      </c>
-      <c r="O5" t="n">
-        <v>74607.58442655983</v>
-      </c>
-      <c r="P5" t="n">
-        <v>74607.58442655986</v>
       </c>
     </row>
     <row r="6">
@@ -26522,46 +26522,46 @@
         <v>-228803.8580412953</v>
       </c>
       <c r="C6" t="n">
-        <v>-148034.4265097475</v>
+        <v>-148034.4265097476</v>
       </c>
       <c r="D6" t="n">
         <v>-148034.4265097476</v>
       </c>
       <c r="E6" t="n">
-        <v>-634257.9654181161</v>
+        <v>-634537.7658822164</v>
       </c>
       <c r="F6" t="n">
-        <v>56591.45459655908</v>
+        <v>56311.65413245875</v>
       </c>
       <c r="G6" t="n">
-        <v>-27193.2604120091</v>
+        <v>-27201.9899251225</v>
       </c>
       <c r="H6" t="n">
-        <v>21919.93507564672</v>
+        <v>21911.20556253361</v>
       </c>
       <c r="I6" t="n">
-        <v>21919.93507564701</v>
+        <v>21911.20556253329</v>
       </c>
       <c r="J6" t="n">
-        <v>-57475.82786447952</v>
+        <v>-57484.55737759284</v>
       </c>
       <c r="K6" t="n">
-        <v>21919.93507564657</v>
+        <v>21911.20556253326</v>
       </c>
       <c r="L6" t="n">
-        <v>-33548.94970228948</v>
+        <v>-33548.94970228957</v>
       </c>
       <c r="M6" t="n">
-        <v>-143697.902072508</v>
+        <v>-143697.9020725078</v>
       </c>
       <c r="N6" t="n">
-        <v>19219.62611897053</v>
+        <v>19219.62611897037</v>
       </c>
       <c r="O6" t="n">
-        <v>2883.805777950562</v>
+        <v>2883.80577795062</v>
       </c>
       <c r="P6" t="n">
-        <v>19219.62611897045</v>
+        <v>19219.62611897055</v>
       </c>
     </row>
   </sheetData>
@@ -26704,28 +26704,28 @@
         <v>81.81126978584457</v>
       </c>
       <c r="I2" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J2" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="K2" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="L2" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="M2" t="n">
+        <v>87.91391253367075</v>
+      </c>
+      <c r="N2" t="n">
         <v>87.91391253367071</v>
       </c>
-      <c r="N2" t="n">
-        <v>87.91391253367073</v>
-      </c>
       <c r="O2" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P2" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.843125727577</v>
+        <v>587.8431257275769</v>
       </c>
       <c r="F3" t="n">
         <v>587.8431257275769</v>
@@ -26771,13 +26771,13 @@
         <v>587.8431257275769</v>
       </c>
       <c r="N3" t="n">
-        <v>587.8431257275768</v>
+        <v>587.8431257275771</v>
       </c>
       <c r="O3" t="n">
-        <v>587.8431257275768</v>
+        <v>587.8431257275771</v>
       </c>
       <c r="P3" t="n">
-        <v>587.8431257275768</v>
+        <v>587.8431257275771</v>
       </c>
     </row>
     <row r="4">
@@ -26808,7 +26808,7 @@
         <v>918.3537744885971</v>
       </c>
       <c r="I4" t="n">
-        <v>918.3537744885971</v>
+        <v>918.3537744885972</v>
       </c>
       <c r="J4" t="n">
         <v>918.3537744885971</v>
@@ -26817,19 +26817,19 @@
         <v>918.3537744885971</v>
       </c>
       <c r="L4" t="n">
-        <v>918.353774488597</v>
+        <v>918.3537744885971</v>
       </c>
       <c r="M4" t="n">
+        <v>894.7659469227875</v>
+      </c>
+      <c r="N4" t="n">
         <v>894.7659469227882</v>
       </c>
-      <c r="N4" t="n">
-        <v>894.765946922788</v>
-      </c>
       <c r="O4" t="n">
+        <v>894.7659469227882</v>
+      </c>
+      <c r="P4" t="n">
         <v>894.7659469227877</v>
-      </c>
-      <c r="P4" t="n">
-        <v>894.7659469227881</v>
       </c>
     </row>
   </sheetData>
@@ -26920,31 +26920,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.39149435956969</v>
+        <v>61.39149435956968</v>
       </c>
       <c r="H2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627493</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.49413710739586</v>
+        <v>67.4941371073958</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.4197754262749</v>
+        <v>20.41977542627493</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.843125727577</v>
+        <v>587.8431257275769</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776591</v>
+        <v>241.0142888776589</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.7516580451293</v>
+        <v>653.7516580451285</v>
       </c>
       <c r="N4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,16 +27157,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.39149435956969</v>
+        <v>61.39149435956968</v>
       </c>
       <c r="M2" t="n">
-        <v>1.4210854715202e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627489</v>
+        <v>20.41977542627493</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>164.9367954821779</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,10 +27388,10 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>174.288448637476</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>339.4748021157671</v>
@@ -27421,28 +27421,28 @@
         <v>0</v>
       </c>
       <c r="Q2" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R2" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>86.73796959247585</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>151.6518282560894</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,22 +27458,22 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>75.38969545077666</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27503,16 +27503,16 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>24.19541919638144</v>
       </c>
       <c r="U3" t="n">
-        <v>225.9413820809748</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
         <v>232.8005871494253</v>
@@ -27582,7 +27582,7 @@
         <v>86.16204325169439</v>
       </c>
       <c r="R4" t="n">
-        <v>44.10642379180146</v>
+        <v>177.2933913771695</v>
       </c>
       <c r="S4" t="n">
         <v>224.0165980369723</v>
@@ -27594,7 +27594,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27616,7 +27616,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>124.2586028933485</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
         <v>113.6687527430239</v>
@@ -27625,7 +27625,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>231.8333861825618</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
@@ -27634,7 +27634,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27667,7 +27667,7 @@
         <v>209.0200695862453</v>
       </c>
       <c r="T5" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.3456529078365</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>169.6144862178345</v>
       </c>
     </row>
     <row r="6">
@@ -27701,19 +27701,19 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>89.01106758047426</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T6" t="n">
         <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>182.9520003028458</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27813,7 +27813,7 @@
         <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q7" t="n">
         <v>86.16204325169439</v>
@@ -27822,7 +27822,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S7" t="n">
-        <v>224.0165980369723</v>
+        <v>113.0991222774871</v>
       </c>
       <c r="T7" t="n">
         <v>227.9455894282815</v>
@@ -27837,7 +27837,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27865,13 +27865,13 @@
         <v>165.8617568640524</v>
       </c>
       <c r="G8" t="n">
-        <v>344.2880590747468</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>98.46051323810809</v>
+        <v>339.4748021157671</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,10 +27898,10 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,10 +27916,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>162.6942218279057</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>145.2236497783945</v>
       </c>
     </row>
     <row r="9">
@@ -27932,7 +27932,7 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C9" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -27941,7 +27941,7 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>49.52383455947395</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27950,7 +27950,7 @@
         <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
-        <v>16.43001129545908</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,10 +27977,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>100.1578341526431</v>
+        <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
         <v>200.1647286948216</v>
@@ -27995,10 +27995,10 @@
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="10">
@@ -28026,7 +28026,7 @@
         <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
-        <v>162.2271725074396</v>
+        <v>147.3903175997337</v>
       </c>
       <c r="I10" t="n">
         <v>155.4504749272583</v>
@@ -28053,7 +28053,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>71.32518834398849</v>
+        <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
         <v>177.2933913771695</v>
@@ -28135,7 +28135,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774376195</v>
       </c>
       <c r="S11" t="n">
         <v>20.41977542627489</v>
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C23" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D23" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E23" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F23" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G23" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H23" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I23" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>1.422481774376195</v>
       </c>
       <c r="S23" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T23" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U23" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V23" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W23" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X23" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="D25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="E25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="F25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="G25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="H25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="I25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="J25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="K25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="L25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="M25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="N25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="O25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="P25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="R25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="S25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="T25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="U25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="V25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="W25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="X25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584454</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="C26" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="D26" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="E26" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="F26" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="G26" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="H26" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="I26" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>1.422481774376195</v>
       </c>
       <c r="S26" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="T26" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="U26" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="V26" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="W26" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="X26" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="C28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="D28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="E28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="F28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="G28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="H28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="I28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="J28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="K28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="L28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="M28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="N28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="O28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="P28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="R28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="S28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="T28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="U28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="V28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="W28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="X28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="C29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="D29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="E29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="F29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="G29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="H29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="I29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>1.422481774376195</v>
       </c>
       <c r="S29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="T29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="U29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="V29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="W29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="X29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="Y29" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="C31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="D31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="E31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="F31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="G31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="H31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="I31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="J31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="K31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="L31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="M31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="N31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="O31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="P31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="Q31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="R31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="S31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="T31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="U31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="V31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="W31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="X31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
       <c r="Y31" t="n">
-        <v>81.81126978584457</v>
+        <v>81.81126978584459</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F32" t="n">
-        <v>87.91391253367074</v>
+        <v>85.71066562432554</v>
       </c>
       <c r="G32" t="n">
-        <v>87.91391253367074</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X32" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y32" t="n">
-        <v>85.71066562432554</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="C34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="D34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="E34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="F34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="G34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="H34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="I34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="J34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="K34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="L34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="M34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="N34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="O34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="P34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="R34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="S34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="T34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="U34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="V34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="W34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="X34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.91391253367074</v>
+        <v>87.9139125336707</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30034,25 +30034,25 @@
         <v>1.422481774376195</v>
       </c>
       <c r="S35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="K37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="L37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="M37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="N37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="O37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="P37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="R37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="S37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="38">
@@ -30220,28 +30220,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -30268,28 +30268,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>1.422481774376223</v>
+        <v>1.422481774376138</v>
       </c>
       <c r="S38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y38" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y40" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="41">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253366919</v>
       </c>
       <c r="H41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.422481774376223</v>
+        <v>1.422481774376138</v>
       </c>
       <c r="S41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.91391253367074</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.422481774376223</v>
+        <v>1.422481774376138</v>
       </c>
       <c r="S44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="C46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="D46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="E46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="F46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="G46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="H46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="I46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="J46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="K46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="L46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="M46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="N46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="O46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="P46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="R46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="S46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="T46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="U46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="V46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="W46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="X46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.91391253367071</v>
+        <v>87.91391253367075</v>
       </c>
     </row>
   </sheetData>
@@ -31750,34 +31750,34 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.363188445135986</v>
+        <v>2.363188445135985</v>
       </c>
       <c r="H11" t="n">
-        <v>24.20200366374893</v>
+        <v>24.20200366374892</v>
       </c>
       <c r="I11" t="n">
-        <v>91.10682253110519</v>
+        <v>91.10682253110518</v>
       </c>
       <c r="J11" t="n">
-        <v>200.5726652953606</v>
+        <v>200.5726652953605</v>
       </c>
       <c r="K11" t="n">
-        <v>300.606432177967</v>
+        <v>300.6064321779669</v>
       </c>
       <c r="L11" t="n">
         <v>372.9288605557974</v>
       </c>
       <c r="M11" t="n">
-        <v>414.9552130669845</v>
+        <v>414.9552130669844</v>
       </c>
       <c r="N11" t="n">
-        <v>421.6696222367272</v>
+        <v>421.6696222367271</v>
       </c>
       <c r="O11" t="n">
-        <v>398.1706671354062</v>
+        <v>398.1706671354061</v>
       </c>
       <c r="P11" t="n">
-        <v>339.8294523961115</v>
+        <v>339.8294523961114</v>
       </c>
       <c r="Q11" t="n">
         <v>255.1977662046789</v>
@@ -31786,13 +31786,13 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S11" t="n">
-        <v>53.85115669353634</v>
+        <v>53.85115669353632</v>
       </c>
       <c r="T11" t="n">
         <v>10.34485741858278</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1890550756108789</v>
+        <v>0.1890550756108788</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,7 +31835,7 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I12" t="n">
-        <v>43.53366544303283</v>
+        <v>43.53366544303282</v>
       </c>
       <c r="J12" t="n">
         <v>119.4597053896013</v>
@@ -31844,34 +31844,34 @@
         <v>204.1756637727566</v>
       </c>
       <c r="L12" t="n">
-        <v>274.5393767843746</v>
+        <v>274.5393767843745</v>
       </c>
       <c r="M12" t="n">
-        <v>320.3745035215294</v>
+        <v>320.3745035215293</v>
       </c>
       <c r="N12" t="n">
-        <v>328.8538633256565</v>
+        <v>328.8538633256564</v>
       </c>
       <c r="O12" t="n">
-        <v>300.8370381258856</v>
+        <v>300.8370381258855</v>
       </c>
       <c r="P12" t="n">
         <v>241.4482453578042</v>
       </c>
       <c r="Q12" t="n">
-        <v>161.4017578412774</v>
+        <v>161.4017578412773</v>
       </c>
       <c r="R12" t="n">
-        <v>78.50478573395833</v>
+        <v>78.50478573395831</v>
       </c>
       <c r="S12" t="n">
         <v>23.48599657977629</v>
       </c>
       <c r="T12" t="n">
-        <v>5.096488986260784</v>
+        <v>5.096488986260782</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08318534798031753</v>
+        <v>0.08318534798031751</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,16 +31908,16 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.060044980820221</v>
+        <v>1.06004498082022</v>
       </c>
       <c r="H13" t="n">
-        <v>9.42476355674706</v>
+        <v>9.424763556747058</v>
       </c>
       <c r="I13" t="n">
-        <v>31.87844360502992</v>
+        <v>31.87844360502991</v>
       </c>
       <c r="J13" t="n">
-        <v>74.9451801439896</v>
+        <v>74.94518014398959</v>
       </c>
       <c r="K13" t="n">
         <v>123.1579532262038</v>
@@ -31935,22 +31935,22 @@
         <v>149.8325396526618</v>
       </c>
       <c r="P13" t="n">
-        <v>128.2076220439292</v>
+        <v>128.2076220439291</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.76431198486412</v>
+        <v>88.76431198486411</v>
       </c>
       <c r="R13" t="n">
-        <v>47.66347704669828</v>
+        <v>47.66347704669827</v>
       </c>
       <c r="S13" t="n">
-        <v>18.47369298393057</v>
+        <v>18.47369298393056</v>
       </c>
       <c r="T13" t="n">
-        <v>4.529283099868215</v>
+        <v>4.529283099868214</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05782063531746665</v>
+        <v>0.05782063531746664</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>2.363188445135985</v>
+        <v>2.363188445135986</v>
       </c>
       <c r="H38" t="n">
-        <v>24.20200366374891</v>
+        <v>24.20200366374893</v>
       </c>
       <c r="I38" t="n">
-        <v>91.10682253110515</v>
+        <v>91.10682253110521</v>
       </c>
       <c r="J38" t="n">
-        <v>200.5726652953605</v>
+        <v>200.5726652953606</v>
       </c>
       <c r="K38" t="n">
-        <v>300.6064321779668</v>
+        <v>300.606432177967</v>
       </c>
       <c r="L38" t="n">
-        <v>372.9288605557973</v>
+        <v>372.9288605557975</v>
       </c>
       <c r="M38" t="n">
-        <v>414.9552130669844</v>
+        <v>414.9552130669846</v>
       </c>
       <c r="N38" t="n">
-        <v>421.669622236727</v>
+        <v>421.6696222367273</v>
       </c>
       <c r="O38" t="n">
-        <v>398.1706671354061</v>
+        <v>398.1706671354063</v>
       </c>
       <c r="P38" t="n">
-        <v>339.8294523961113</v>
+        <v>339.8294523961115</v>
       </c>
       <c r="Q38" t="n">
-        <v>255.1977662046788</v>
+        <v>255.1977662046789</v>
       </c>
       <c r="R38" t="n">
         <v>148.4466361667735</v>
       </c>
       <c r="S38" t="n">
-        <v>53.85115669353632</v>
+        <v>53.85115669353635</v>
       </c>
       <c r="T38" t="n">
-        <v>10.34485741858278</v>
+        <v>10.34485741858279</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1890550756108788</v>
+        <v>0.1890550756108789</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33968,43 +33968,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I39" t="n">
-        <v>43.53366544303282</v>
+        <v>43.53366544303284</v>
       </c>
       <c r="J39" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K39" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727567</v>
       </c>
       <c r="L39" t="n">
-        <v>274.5393767843744</v>
+        <v>274.5393767843746</v>
       </c>
       <c r="M39" t="n">
-        <v>320.3745035215293</v>
+        <v>320.3745035215295</v>
       </c>
       <c r="N39" t="n">
-        <v>328.8538633256564</v>
+        <v>328.8538633256566</v>
       </c>
       <c r="O39" t="n">
-        <v>300.8370381258854</v>
+        <v>300.8370381258856</v>
       </c>
       <c r="P39" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578043</v>
       </c>
       <c r="Q39" t="n">
-        <v>161.4017578412773</v>
+        <v>161.4017578412774</v>
       </c>
       <c r="R39" t="n">
-        <v>78.5047857339583</v>
+        <v>78.50478573395834</v>
       </c>
       <c r="S39" t="n">
-        <v>23.48599657977628</v>
+        <v>23.4859965797763</v>
       </c>
       <c r="T39" t="n">
-        <v>5.096488986260781</v>
+        <v>5.096488986260785</v>
       </c>
       <c r="U39" t="n">
-        <v>0.0831853479803175</v>
+        <v>0.08318534798031756</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,19 +34041,19 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>1.06004498082022</v>
+        <v>1.060044980820221</v>
       </c>
       <c r="H40" t="n">
-        <v>9.424763556747056</v>
+        <v>9.424763556747061</v>
       </c>
       <c r="I40" t="n">
-        <v>31.87844360502991</v>
+        <v>31.87844360502993</v>
       </c>
       <c r="J40" t="n">
-        <v>74.94518014398957</v>
+        <v>74.94518014398962</v>
       </c>
       <c r="K40" t="n">
-        <v>123.1579532262037</v>
+        <v>123.1579532262038</v>
       </c>
       <c r="L40" t="n">
         <v>157.5997783303081</v>
@@ -34062,28 +34062,28 @@
         <v>166.166869129846</v>
       </c>
       <c r="N40" t="n">
-        <v>162.2157923831525</v>
+        <v>162.2157923831526</v>
       </c>
       <c r="O40" t="n">
-        <v>149.8325396526617</v>
+        <v>149.8325396526618</v>
       </c>
       <c r="P40" t="n">
-        <v>128.2076220439291</v>
+        <v>128.2076220439292</v>
       </c>
       <c r="Q40" t="n">
-        <v>88.76431198486409</v>
+        <v>88.76431198486414</v>
       </c>
       <c r="R40" t="n">
-        <v>47.66347704669825</v>
+        <v>47.66347704669828</v>
       </c>
       <c r="S40" t="n">
-        <v>18.47369298393056</v>
+        <v>18.47369298393057</v>
       </c>
       <c r="T40" t="n">
-        <v>4.529283099868213</v>
+        <v>4.529283099868215</v>
       </c>
       <c r="U40" t="n">
-        <v>0.05782063531746662</v>
+        <v>0.05782063531746666</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>2.363188445135985</v>
+        <v>2.363188445135986</v>
       </c>
       <c r="H41" t="n">
-        <v>24.20200366374891</v>
+        <v>24.20200366374893</v>
       </c>
       <c r="I41" t="n">
-        <v>91.10682253110515</v>
+        <v>91.10682253110521</v>
       </c>
       <c r="J41" t="n">
-        <v>200.5726652953605</v>
+        <v>200.5726652953606</v>
       </c>
       <c r="K41" t="n">
-        <v>300.6064321779668</v>
+        <v>300.606432177967</v>
       </c>
       <c r="L41" t="n">
-        <v>372.9288605557973</v>
+        <v>372.9288605557975</v>
       </c>
       <c r="M41" t="n">
-        <v>414.9552130669844</v>
+        <v>414.9552130669846</v>
       </c>
       <c r="N41" t="n">
-        <v>421.669622236727</v>
+        <v>421.6696222367273</v>
       </c>
       <c r="O41" t="n">
-        <v>398.1706671354061</v>
+        <v>398.1706671354063</v>
       </c>
       <c r="P41" t="n">
-        <v>339.8294523961113</v>
+        <v>339.8294523961115</v>
       </c>
       <c r="Q41" t="n">
-        <v>255.1977662046788</v>
+        <v>255.1977662046789</v>
       </c>
       <c r="R41" t="n">
         <v>148.4466361667735</v>
       </c>
       <c r="S41" t="n">
-        <v>53.85115669353632</v>
+        <v>53.85115669353635</v>
       </c>
       <c r="T41" t="n">
-        <v>10.34485741858278</v>
+        <v>10.34485741858279</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1890550756108788</v>
+        <v>0.1890550756108789</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34205,43 +34205,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I42" t="n">
-        <v>43.53366544303282</v>
+        <v>43.53366544303284</v>
       </c>
       <c r="J42" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K42" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727567</v>
       </c>
       <c r="L42" t="n">
-        <v>274.5393767843744</v>
+        <v>274.5393767843746</v>
       </c>
       <c r="M42" t="n">
-        <v>320.3745035215293</v>
+        <v>320.3745035215295</v>
       </c>
       <c r="N42" t="n">
-        <v>328.8538633256564</v>
+        <v>328.8538633256566</v>
       </c>
       <c r="O42" t="n">
-        <v>300.8370381258854</v>
+        <v>300.8370381258856</v>
       </c>
       <c r="P42" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578043</v>
       </c>
       <c r="Q42" t="n">
-        <v>161.4017578412773</v>
+        <v>161.4017578412774</v>
       </c>
       <c r="R42" t="n">
-        <v>78.5047857339583</v>
+        <v>78.50478573395834</v>
       </c>
       <c r="S42" t="n">
-        <v>23.48599657977628</v>
+        <v>23.4859965797763</v>
       </c>
       <c r="T42" t="n">
-        <v>5.096488986260781</v>
+        <v>5.096488986260785</v>
       </c>
       <c r="U42" t="n">
-        <v>0.0831853479803175</v>
+        <v>0.08318534798031756</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,19 +34278,19 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>1.06004498082022</v>
+        <v>1.060044980820221</v>
       </c>
       <c r="H43" t="n">
-        <v>9.424763556747056</v>
+        <v>9.424763556747061</v>
       </c>
       <c r="I43" t="n">
-        <v>31.87844360502991</v>
+        <v>31.87844360502993</v>
       </c>
       <c r="J43" t="n">
-        <v>74.94518014398957</v>
+        <v>74.94518014398962</v>
       </c>
       <c r="K43" t="n">
-        <v>123.1579532262037</v>
+        <v>123.1579532262038</v>
       </c>
       <c r="L43" t="n">
         <v>157.5997783303081</v>
@@ -34299,28 +34299,28 @@
         <v>166.166869129846</v>
       </c>
       <c r="N43" t="n">
-        <v>162.2157923831525</v>
+        <v>162.2157923831526</v>
       </c>
       <c r="O43" t="n">
-        <v>149.8325396526617</v>
+        <v>149.8325396526618</v>
       </c>
       <c r="P43" t="n">
-        <v>128.2076220439291</v>
+        <v>128.2076220439292</v>
       </c>
       <c r="Q43" t="n">
-        <v>88.76431198486409</v>
+        <v>88.76431198486414</v>
       </c>
       <c r="R43" t="n">
-        <v>47.66347704669825</v>
+        <v>47.66347704669828</v>
       </c>
       <c r="S43" t="n">
-        <v>18.47369298393056</v>
+        <v>18.47369298393057</v>
       </c>
       <c r="T43" t="n">
-        <v>4.529283099868213</v>
+        <v>4.529283099868215</v>
       </c>
       <c r="U43" t="n">
-        <v>0.05782063531746662</v>
+        <v>0.05782063531746666</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.363188445135985</v>
+        <v>2.363188445135986</v>
       </c>
       <c r="H44" t="n">
-        <v>24.20200366374891</v>
+        <v>24.20200366374893</v>
       </c>
       <c r="I44" t="n">
-        <v>91.10682253110515</v>
+        <v>91.10682253110521</v>
       </c>
       <c r="J44" t="n">
-        <v>200.5726652953605</v>
+        <v>200.5726652953606</v>
       </c>
       <c r="K44" t="n">
-        <v>300.6064321779668</v>
+        <v>300.606432177967</v>
       </c>
       <c r="L44" t="n">
-        <v>372.9288605557973</v>
+        <v>372.9288605557975</v>
       </c>
       <c r="M44" t="n">
-        <v>414.9552130669844</v>
+        <v>414.9552130669846</v>
       </c>
       <c r="N44" t="n">
-        <v>421.669622236727</v>
+        <v>421.6696222367273</v>
       </c>
       <c r="O44" t="n">
-        <v>398.1706671354061</v>
+        <v>398.1706671354063</v>
       </c>
       <c r="P44" t="n">
-        <v>339.8294523961113</v>
+        <v>339.8294523961115</v>
       </c>
       <c r="Q44" t="n">
-        <v>255.1977662046788</v>
+        <v>255.1977662046789</v>
       </c>
       <c r="R44" t="n">
         <v>148.4466361667735</v>
       </c>
       <c r="S44" t="n">
-        <v>53.85115669353632</v>
+        <v>53.85115669353635</v>
       </c>
       <c r="T44" t="n">
-        <v>10.34485741858278</v>
+        <v>10.34485741858279</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1890550756108788</v>
+        <v>0.1890550756108789</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34442,43 +34442,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I45" t="n">
-        <v>43.53366544303282</v>
+        <v>43.53366544303284</v>
       </c>
       <c r="J45" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K45" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727567</v>
       </c>
       <c r="L45" t="n">
-        <v>274.5393767843744</v>
+        <v>274.5393767843746</v>
       </c>
       <c r="M45" t="n">
-        <v>320.3745035215293</v>
+        <v>320.3745035215295</v>
       </c>
       <c r="N45" t="n">
-        <v>328.8538633256564</v>
+        <v>328.8538633256566</v>
       </c>
       <c r="O45" t="n">
-        <v>300.8370381258854</v>
+        <v>300.8370381258856</v>
       </c>
       <c r="P45" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578043</v>
       </c>
       <c r="Q45" t="n">
-        <v>161.4017578412773</v>
+        <v>161.4017578412774</v>
       </c>
       <c r="R45" t="n">
-        <v>78.5047857339583</v>
+        <v>78.50478573395834</v>
       </c>
       <c r="S45" t="n">
-        <v>23.48599657977628</v>
+        <v>23.4859965797763</v>
       </c>
       <c r="T45" t="n">
-        <v>5.096488986260781</v>
+        <v>5.096488986260785</v>
       </c>
       <c r="U45" t="n">
-        <v>0.0831853479803175</v>
+        <v>0.08318534798031756</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,19 +34515,19 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.06004498082022</v>
+        <v>1.060044980820221</v>
       </c>
       <c r="H46" t="n">
-        <v>9.424763556747056</v>
+        <v>9.424763556747061</v>
       </c>
       <c r="I46" t="n">
-        <v>31.87844360502991</v>
+        <v>31.87844360502993</v>
       </c>
       <c r="J46" t="n">
-        <v>74.94518014398957</v>
+        <v>74.94518014398962</v>
       </c>
       <c r="K46" t="n">
-        <v>123.1579532262037</v>
+        <v>123.1579532262038</v>
       </c>
       <c r="L46" t="n">
         <v>157.5997783303081</v>
@@ -34536,28 +34536,28 @@
         <v>166.166869129846</v>
       </c>
       <c r="N46" t="n">
-        <v>162.2157923831525</v>
+        <v>162.2157923831526</v>
       </c>
       <c r="O46" t="n">
-        <v>149.8325396526617</v>
+        <v>149.8325396526618</v>
       </c>
       <c r="P46" t="n">
-        <v>128.2076220439291</v>
+        <v>128.2076220439292</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.76431198486409</v>
+        <v>88.76431198486414</v>
       </c>
       <c r="R46" t="n">
-        <v>47.66347704669825</v>
+        <v>47.66347704669828</v>
       </c>
       <c r="S46" t="n">
-        <v>18.47369298393056</v>
+        <v>18.47369298393057</v>
       </c>
       <c r="T46" t="n">
-        <v>4.529283099868213</v>
+        <v>4.529283099868215</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05782063531746662</v>
+        <v>0.05782063531746666</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34705,10 +34705,10 @@
         <v>181.8947995804632</v>
       </c>
       <c r="M2" t="n">
-        <v>219.1673002655598</v>
+        <v>219.1673002655597</v>
       </c>
       <c r="N2" t="n">
-        <v>207.9338608153933</v>
+        <v>207.9338608153932</v>
       </c>
       <c r="O2" t="n">
         <v>150.7019698410586</v>
@@ -34778,16 +34778,16 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="N3" t="n">
-        <v>241.0142888776591</v>
+        <v>169.9067907798017</v>
       </c>
       <c r="O3" t="n">
         <v>241.0142888776591</v>
@@ -34948,7 +34948,7 @@
         <v>207.9338608153932</v>
       </c>
       <c r="O5" t="n">
-        <v>150.7019698410587</v>
+        <v>150.7019698410586</v>
       </c>
       <c r="P5" t="n">
         <v>90.5657124162131</v>
@@ -35018,13 +35018,13 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>34.55702612384782</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="N6" t="n">
-        <v>241.0142888776591</v>
+        <v>43.28534947792182</v>
       </c>
       <c r="O6" t="n">
         <v>241.0142888776591</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>241.0142888776591</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N9" t="n">
-        <v>55.51629994036225</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35270,7 +35270,7 @@
         <v>184.4883612256069</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>70.09551364982758</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35407,25 +35407,25 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>188.6233759407481</v>
+        <v>188.623375940748</v>
       </c>
       <c r="K11" t="n">
         <v>404.6619937041511</v>
       </c>
       <c r="L11" t="n">
-        <v>554.8236601362606</v>
+        <v>554.8236601362605</v>
       </c>
       <c r="M11" t="n">
-        <v>634.1225133325443</v>
+        <v>634.1225133325441</v>
       </c>
       <c r="N11" t="n">
-        <v>629.6034830521205</v>
+        <v>629.6034830521203</v>
       </c>
       <c r="O11" t="n">
-        <v>548.8726369764648</v>
+        <v>548.8726369764647</v>
       </c>
       <c r="P11" t="n">
-        <v>430.3951648123246</v>
+        <v>430.3951648123245</v>
       </c>
       <c r="Q11" t="n">
         <v>245.2070669901341</v>
@@ -35486,28 +35486,28 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>118.7131140633435</v>
+        <v>118.7131140633434</v>
       </c>
       <c r="K12" t="n">
-        <v>66.33422479839766</v>
+        <v>330.7994618109762</v>
       </c>
       <c r="L12" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M12" t="n">
-        <v>241.847631486523</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N12" t="n">
         <v>676.8545255858767</v>
       </c>
       <c r="O12" t="n">
-        <v>552.1031129581706</v>
+        <v>204.0027427225412</v>
       </c>
       <c r="P12" t="n">
-        <v>425.9366065834112</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q12" t="n">
-        <v>21.41998375525586</v>
+        <v>21.41998375525583</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35580,13 +35580,13 @@
         <v>226.7677401886561</v>
       </c>
       <c r="O13" t="n">
-        <v>194.8374429929764</v>
+        <v>194.8374429929763</v>
       </c>
       <c r="P13" t="n">
-        <v>145.9059567350976</v>
+        <v>145.9059567350975</v>
       </c>
       <c r="Q13" t="n">
-        <v>23.02204415944462</v>
+        <v>23.02204415944461</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35650,7 +35650,7 @@
         <v>404.6619937041511</v>
       </c>
       <c r="L14" t="n">
-        <v>554.8236601362605</v>
+        <v>554.8236601362609</v>
       </c>
       <c r="M14" t="n">
         <v>634.1225133325441</v>
@@ -35662,7 +35662,7 @@
         <v>548.8726369764647</v>
       </c>
       <c r="P14" t="n">
-        <v>430.3951648123258</v>
+        <v>430.3951648123245</v>
       </c>
       <c r="Q14" t="n">
         <v>245.2070669901341</v>
@@ -35729,7 +35729,7 @@
         <v>330.7994618109762</v>
       </c>
       <c r="L15" t="n">
-        <v>234.1245227091225</v>
+        <v>135.9849970045003</v>
       </c>
       <c r="M15" t="n">
         <v>643.9455333495109</v>
@@ -35741,10 +35741,10 @@
         <v>158.2407936814411</v>
       </c>
       <c r="P15" t="n">
-        <v>425.9366065834111</v>
+        <v>313.9988445521845</v>
       </c>
       <c r="Q15" t="n">
-        <v>21.41998375525583</v>
+        <v>231.4972714911049</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.005775453591696</v>
+        <v>2.005775453591703</v>
       </c>
       <c r="K16" t="n">
         <v>121.3082368265958</v>
@@ -35814,7 +35814,7 @@
         <v>226.1705215179615</v>
       </c>
       <c r="N16" t="n">
-        <v>226.767740188656</v>
+        <v>226.7677401886561</v>
       </c>
       <c r="O16" t="n">
         <v>194.8374429929763</v>
@@ -35899,7 +35899,7 @@
         <v>548.8726369764647</v>
       </c>
       <c r="P17" t="n">
-        <v>430.3951648123258</v>
+        <v>430.3951648123245</v>
       </c>
       <c r="Q17" t="n">
         <v>245.2070669901341</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>118.7131140633434</v>
       </c>
       <c r="K18" t="n">
-        <v>66.3342247983976</v>
+        <v>330.7994618109762</v>
       </c>
       <c r="L18" t="n">
         <v>135.9849970045003</v>
@@ -35978,10 +35978,10 @@
         <v>552.1031129581706</v>
       </c>
       <c r="P18" t="n">
-        <v>425.9366065834111</v>
+        <v>107.4738379434739</v>
       </c>
       <c r="Q18" t="n">
-        <v>108.8755412590704</v>
+        <v>44.15995882308555</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36203,19 +36203,19 @@
         <v>330.7994618109762</v>
       </c>
       <c r="L21" t="n">
-        <v>342.5100036132105</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M21" t="n">
-        <v>643.9455333495109</v>
+        <v>246.6474810816491</v>
       </c>
       <c r="N21" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423231</v>
       </c>
       <c r="O21" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P21" t="n">
-        <v>107.4738379434739</v>
+        <v>425.9366065834111</v>
       </c>
       <c r="Q21" t="n">
         <v>231.4972714911049</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>188.623375940748</v>
+        <v>188.6233759407493</v>
       </c>
       <c r="K23" t="n">
         <v>404.6619937041511</v>
@@ -36443,7 +36443,7 @@
         <v>506.8253423079595</v>
       </c>
       <c r="M24" t="n">
-        <v>643.9455333495109</v>
+        <v>246.647481081649</v>
       </c>
       <c r="N24" t="n">
         <v>197.5121512423231</v>
@@ -36452,10 +36452,10 @@
         <v>552.1031129581706</v>
       </c>
       <c r="P24" t="n">
-        <v>107.4738379434739</v>
+        <v>425.9366065834111</v>
       </c>
       <c r="Q24" t="n">
-        <v>152.6619878631801</v>
+        <v>231.4972714911049</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.39726981316139</v>
+        <v>63.39726981316136</v>
       </c>
       <c r="K25" t="n">
         <v>182.6997311861655</v>
@@ -36522,10 +36522,10 @@
         <v>267.0010733764688</v>
       </c>
       <c r="M25" t="n">
-        <v>287.5620158775312</v>
+        <v>287.5620158775311</v>
       </c>
       <c r="N25" t="n">
-        <v>288.1592345482258</v>
+        <v>288.1592345482257</v>
       </c>
       <c r="O25" t="n">
         <v>256.228937352546</v>
@@ -36534,7 +36534,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.4135385190143</v>
+        <v>84.41353851901427</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36680,10 +36680,10 @@
         <v>506.8253423079595</v>
       </c>
       <c r="M27" t="n">
-        <v>246.6474810816491</v>
+        <v>178.240469599511</v>
       </c>
       <c r="N27" t="n">
-        <v>197.5121512423231</v>
+        <v>265.9191627244612</v>
       </c>
       <c r="O27" t="n">
         <v>552.1031129581706</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.39726981316139</v>
+        <v>63.3972698131614</v>
       </c>
       <c r="K28" t="n">
         <v>182.6997311861655</v>
@@ -36771,7 +36771,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.4135385190143</v>
+        <v>84.41353851901431</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>118.7131140633434</v>
       </c>
       <c r="K30" t="n">
-        <v>251.9641781830515</v>
+        <v>330.7994618109762</v>
       </c>
       <c r="L30" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M30" t="n">
-        <v>643.9455333495109</v>
+        <v>640.5098003583786</v>
       </c>
       <c r="N30" t="n">
         <v>197.5121512423231</v>
       </c>
       <c r="O30" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P30" t="n">
-        <v>107.4738379434739</v>
+        <v>425.9366065834111</v>
       </c>
       <c r="Q30" t="n">
         <v>231.4972714911049</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.39726981316139</v>
+        <v>63.3972698131614</v>
       </c>
       <c r="K31" t="n">
         <v>182.6997311861655</v>
@@ -37008,7 +37008,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q31" t="n">
-        <v>84.4135385190143</v>
+        <v>84.41353851901431</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>430.3951648123245</v>
       </c>
       <c r="Q32" t="n">
-        <v>245.2070669901341</v>
+        <v>245.2070669901355</v>
       </c>
       <c r="R32" t="n">
         <v>0</v>
@@ -37145,7 +37145,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>118.7131140633434</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>330.7994618109762</v>
@@ -37154,10 +37154,10 @@
         <v>506.8253423079595</v>
       </c>
       <c r="M33" t="n">
-        <v>178.240469599511</v>
+        <v>365.3605951449925</v>
       </c>
       <c r="N33" t="n">
-        <v>265.9191627244612</v>
+        <v>197.5121512423231</v>
       </c>
       <c r="O33" t="n">
         <v>552.1031129581706</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.49991256098755</v>
+        <v>69.49991256098751</v>
       </c>
       <c r="K34" t="n">
         <v>188.8023739339916</v>
       </c>
       <c r="L34" t="n">
-        <v>273.103716124295</v>
+        <v>273.1037161242949</v>
       </c>
       <c r="M34" t="n">
         <v>293.6646586253573</v>
@@ -37242,10 +37242,10 @@
         <v>262.3315801003722</v>
       </c>
       <c r="P34" t="n">
-        <v>213.4000938424934</v>
+        <v>213.4000938424933</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.51618126684046</v>
+        <v>90.51618126684042</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,10 +37303,10 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>188.623375940748</v>
+        <v>95.22510921552315</v>
       </c>
       <c r="K35" t="n">
-        <v>311.2637269789289</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L35" t="n">
         <v>554.8236601362605</v>
@@ -37461,13 +37461,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>69.49991256098753</v>
+        <v>69.49991256098757</v>
       </c>
       <c r="K37" t="n">
-        <v>188.8023739339916</v>
+        <v>188.8023739339917</v>
       </c>
       <c r="L37" t="n">
-        <v>273.1037161242949</v>
+        <v>273.103716124295</v>
       </c>
       <c r="M37" t="n">
         <v>293.6646586253573</v>
@@ -37479,10 +37479,10 @@
         <v>262.3315801003722</v>
       </c>
       <c r="P37" t="n">
-        <v>213.4000938424933</v>
+        <v>213.4000938424934</v>
       </c>
       <c r="Q37" t="n">
-        <v>90.51618126684043</v>
+        <v>90.51618126684048</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>188.623375940748</v>
+        <v>95.22510921552458</v>
       </c>
       <c r="K38" t="n">
-        <v>404.661993704151</v>
+        <v>404.6619937041512</v>
       </c>
       <c r="L38" t="n">
-        <v>554.8236601362605</v>
+        <v>554.8236601362607</v>
       </c>
       <c r="M38" t="n">
-        <v>634.1225133325441</v>
+        <v>634.1225133325444</v>
       </c>
       <c r="N38" t="n">
-        <v>629.6034830521203</v>
+        <v>629.6034830521205</v>
       </c>
       <c r="O38" t="n">
-        <v>548.8726369764647</v>
+        <v>548.8726369764649</v>
       </c>
       <c r="P38" t="n">
-        <v>430.3951648123244</v>
+        <v>430.3951648123247</v>
       </c>
       <c r="Q38" t="n">
-        <v>151.808800264911</v>
+        <v>245.2070669901341</v>
       </c>
       <c r="R38" t="n">
         <v>0</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>118.7131140633434</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K39" t="n">
-        <v>330.7994618109761</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L39" t="n">
-        <v>506.8253423079594</v>
+        <v>506.8253423079596</v>
       </c>
       <c r="M39" t="n">
-        <v>178.240469599511</v>
+        <v>640.5098003583781</v>
       </c>
       <c r="N39" t="n">
-        <v>265.9191627244614</v>
+        <v>197.5121512423233</v>
       </c>
       <c r="O39" t="n">
-        <v>552.1031129581705</v>
+        <v>158.2407936814412</v>
       </c>
       <c r="P39" t="n">
-        <v>425.936606583411</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q39" t="n">
-        <v>231.4972714911049</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,13 +37698,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>69.49991256098753</v>
+        <v>69.49991256098755</v>
       </c>
       <c r="K40" t="n">
-        <v>188.8023739339916</v>
+        <v>188.8023739339917</v>
       </c>
       <c r="L40" t="n">
-        <v>273.1037161242949</v>
+        <v>273.103716124295</v>
       </c>
       <c r="M40" t="n">
         <v>293.6646586253573</v>
@@ -37713,13 +37713,13 @@
         <v>294.2618772960519</v>
       </c>
       <c r="O40" t="n">
-        <v>262.3315801003721</v>
+        <v>262.3315801003722</v>
       </c>
       <c r="P40" t="n">
         <v>213.4000938424934</v>
       </c>
       <c r="Q40" t="n">
-        <v>90.51618126684043</v>
+        <v>90.51618126684046</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,28 +37777,28 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>188.623375940748</v>
+        <v>95.22510921552458</v>
       </c>
       <c r="K41" t="n">
-        <v>404.661993704151</v>
+        <v>404.6619937041512</v>
       </c>
       <c r="L41" t="n">
-        <v>554.8236601362605</v>
+        <v>554.8236601362607</v>
       </c>
       <c r="M41" t="n">
-        <v>634.1225133325441</v>
+        <v>634.1225133325444</v>
       </c>
       <c r="N41" t="n">
-        <v>629.6034830521203</v>
+        <v>629.6034830521205</v>
       </c>
       <c r="O41" t="n">
-        <v>548.8726369764647</v>
+        <v>548.8726369764649</v>
       </c>
       <c r="P41" t="n">
-        <v>336.9968980871005</v>
+        <v>430.3951648123247</v>
       </c>
       <c r="Q41" t="n">
-        <v>245.207066990134</v>
+        <v>245.2070669901341</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,28 +37856,28 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>118.7131140633434</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K42" t="n">
-        <v>330.7994618109761</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L42" t="n">
-        <v>506.8253423079594</v>
+        <v>506.8253423079596</v>
       </c>
       <c r="M42" t="n">
-        <v>178.240469599511</v>
+        <v>178.2404695995112</v>
       </c>
       <c r="N42" t="n">
-        <v>265.9191627244614</v>
+        <v>265.9191627244609</v>
       </c>
       <c r="O42" t="n">
-        <v>552.1031129581705</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P42" t="n">
-        <v>425.936606583411</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q42" t="n">
-        <v>231.4972714911049</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.49991256098754</v>
+        <v>69.49991256098755</v>
       </c>
       <c r="K43" t="n">
-        <v>188.8023739339916</v>
+        <v>188.8023739339917</v>
       </c>
       <c r="L43" t="n">
-        <v>273.1037161242949</v>
+        <v>273.103716124295</v>
       </c>
       <c r="M43" t="n">
         <v>293.6646586253573</v>
@@ -37956,7 +37956,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.51618126684045</v>
+        <v>90.51618126684046</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>188.623375940748</v>
+        <v>188.6233759407481</v>
       </c>
       <c r="K44" t="n">
-        <v>404.661993704151</v>
+        <v>404.6619937041512</v>
       </c>
       <c r="L44" t="n">
-        <v>554.8236601362605</v>
+        <v>554.8236601362607</v>
       </c>
       <c r="M44" t="n">
-        <v>634.1225133325441</v>
+        <v>634.1225133325444</v>
       </c>
       <c r="N44" t="n">
-        <v>629.6034830521203</v>
+        <v>629.6034830521205</v>
       </c>
       <c r="O44" t="n">
-        <v>548.8726369764647</v>
+        <v>455.4743702512395</v>
       </c>
       <c r="P44" t="n">
-        <v>430.3951648123244</v>
+        <v>430.3951648123247</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.8088002649114</v>
+        <v>245.2070669901341</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>118.7131140633434</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K45" t="n">
-        <v>330.7994618109761</v>
+        <v>330.7994618109763</v>
       </c>
       <c r="L45" t="n">
-        <v>135.9849970045003</v>
+        <v>506.8253423079596</v>
       </c>
       <c r="M45" t="n">
-        <v>643.9455333495109</v>
+        <v>640.5098003583782</v>
       </c>
       <c r="N45" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423233</v>
       </c>
       <c r="O45" t="n">
-        <v>552.1031129581705</v>
+        <v>158.2407936814412</v>
       </c>
       <c r="P45" t="n">
-        <v>107.4738379434739</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q45" t="n">
-        <v>44.15995882308555</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.49991256098751</v>
+        <v>69.4999125609876</v>
       </c>
       <c r="K46" t="n">
-        <v>188.8023739339916</v>
+        <v>188.8023739339917</v>
       </c>
       <c r="L46" t="n">
-        <v>273.1037161242949</v>
+        <v>273.103716124295</v>
       </c>
       <c r="M46" t="n">
-        <v>293.6646586253573</v>
+        <v>293.6646586253574</v>
       </c>
       <c r="N46" t="n">
-        <v>294.2618772960519</v>
+        <v>294.261877296052</v>
       </c>
       <c r="O46" t="n">
-        <v>262.3315801003721</v>
+        <v>262.3315801003723</v>
       </c>
       <c r="P46" t="n">
-        <v>213.4000938424933</v>
+        <v>213.4000938424934</v>
       </c>
       <c r="Q46" t="n">
-        <v>90.51618126684042</v>
+        <v>90.5161812668405</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
